--- a/BBC_webscraped.xlsx
+++ b/BBC_webscraped.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>လွန်ခဲ့သော တစ်နာရီ က</t>
+          <t>၁၈ ဇူလိုင် ၂၀၂၄</t>
         </is>
       </c>
     </row>
@@ -730,6 +730,7758 @@
       <c r="B25" t="inlineStr">
         <is>
           <t>၇ ဇွန် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>‘‘ရာသီဥတုကို ကယ်တင်ဖို့ ရုပ်ကြွင်းလောင်စာ ကြော်ငြာတွေ ပိတ်ပင်ပါ’’ - ကုလအကြီးအကဲ</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>၅ ဇွန် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ရွှေစျေးကွက်မတည်ငြိမ်အောင်လုပ်သူဆိုပြီးလုပ်ငန်းရှင်တွေကို စစ်ကောင်စီ အရေးယူမယ်</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>၃ ဇွန် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ကျပ်ငွေတန်ဖိုး ကျဆင်းမှုနဲ့ မြန်မာ့စီးပွားရေး အကျပ်အတည်း</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>၂၉ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ဒေါ်လာ၊ ရွှေဈေးနှုန်းတွေ ဘာကြောင့်တရှိန်ထိုးတက်လာရတာလဲ</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>၂၉ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>နှစ်သုံးရာက ကိုလံဘီယာ ရတနာသင်္ဘောပျက် ရှာဖွေမှု စတင်</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>၂၆ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>မြစ်ဆုံ စီမံကိန်း ပြန်စတော့မလား</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>၂၂ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ခရီးသွားလုပ်ငန်း တိုးတက်ဖို့ တရုတ်ကြိုးစား</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>၂၂ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာအနှံ့ပျံ့တဲ့ အိန္ဒိယဟင်းခတ်အမွှေးအကြိုင်နဲ့ပတ်သက်ပြီး လူတွေရဲ့စိုးရိမ်ချက်က  ဘာလဲ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>၂၂ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ထိုင်းမှာ မြန်မာလုပ်သားတွေရဲ့ ဘဏ်အကောင့်တွေ အလွဲသုံးစား အသုံးပြုခံနေရ</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>၂၁ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>မြန်မာပြည်တွင်းက စက်ရုံတွေ ၁ ရက်ကို မီး ၂ နာရီပဲ ရတော့မယ်</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>၂၀ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>အီရန်သမ္မတ ရဟတ်ယာဉ်ပျက်ကျပြီး သေဆုံး</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>၂၀ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>မြန်မာအာဏာသိမ်းကာလ ပုဂံနဲ့ အန်ကော ခရီးသွားဧည့်သည် ဘယ်လောက်ကွာဟနေလဲ</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>၁၅ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ရုရှားအပေါ်  ဒဏ်ခတ်ပိတ်ဆို့မှုတွေက ဘာတွေလဲ၊ ဘယ်လောက်အလုပ်ဖြစ်လဲ</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>၁၀ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ထိုင်းမှာ ရိုက်နှက်စွန့်ပစ်ခံရတဲ့မြန်မာ MOU  လုပ်သား</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>၇ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>မြန်မာ ၁၇ ဦးကို လာအိုဖမ်းဆီးပြီး မြန်မာဘက်ကိုလွှဲ</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>၆ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ရာဖာက စစ်ဘေးရှောင်တွေ ဖယ်ဖို့ အစ္စရေးပြော</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>၆ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>အမျိုးသားတွေပြည်ပထွက်ခွာအလုပ်ခွင့်ပိတ်ပင်မှုဘာတွေသက်ရောက်လာနိုင်လဲ</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>၃ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>လျှပ်စစ်မီးပြတ်တောက်မှုတွေ ပိုဆိုးလာတာ ဘာကြောင့်လဲ</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>၂ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>အပူချိန်တိုး၊ မီးမလာခြင်းနဲ့ လူထု ကျန်းမာရေး</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>၁ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>၃နှစ်ရာသီ NUG- စစ်ရေး၊ဘဏ္ဍာရေး၊နယ်မြေစိုးမိုးမှုနဲ့ ပသုံးလုံးပြဿနာ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>၁ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>May Day - မေလ ၁ ရက်ကို အပြည်ပြည်ဆိုင်ရာအလုပ်သမားနေ့ အဖြစ် ဘာလို့သတ်မှတ်</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>၁ မေ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>လောက်ကိုင်မှာ အများပြည်သူရှေ့ တရားစီရင်</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>၂၅ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>တောင်ကိုရီယားက မောင်းသူမဲ့ ဘတ်စကား</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>၂၄ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ရိုဟင်ဂျာရွာတွေမှာ စစ်ကောင်စီ စစ်သားစုဆောင်း</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>၂၄ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ချင်းနဲ့ အိန္ဒိယ အကြား တံတားကို အိန္ဒိယက ပိတ်မယ်လို့ သတင်းထွက်</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>၂၃ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>စီးပွားရေး ပြန်ဦးမော့ဖို့ တရုတ် ကြိုးစား</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>၂၃ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ထောင်နဲ့ချီတဲ့ မြဝတီစစ်ရှောင်တွေ ဘာတွေကို ရင်ဆိုင်ဖြတ်ကျော်နေရလဲ</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>၂၁ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>အသက် ၆၀ ပိုင်းမှာ အငြိမ်းစား မယူရမယ့် အခြေအနေရောက်လာနေပြီလား</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>၂၀ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>အီရန်မှာ အမျိုးသမီးတွေအပေါ် ပိုတင်းကျပ်လာ</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>၁၉ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ဂျပန်ကိုလာတဲ့ နိုင်ငံခြားခရီးသည် မတ်လအတွင်း  ၃ သန်းကျော်ရှိ</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>၁၇ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>အိန္ဒိယဟာ ကမ္ဘာ့အင်အားကြီးနိုင်ငံသစ်ဖြစ်လာနိုင်မလား</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>၁၆ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>အစ္စရေးကို တိုက်ခိုက်မှုအပြီး အီရန်နိုင်ငံထဲ ဘယ်လိုအခြေအနေရှိနေလဲ</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>၁၅ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ကျူးမင်းလန် - ဗီယက်နမ်သန်းကြွယ်သူဌေးမကြီး ဒေါ်လာ ၄၄ ဘီလျံလိမ်လည်မှုနဲ့သေဒဏ်ချမှတ်ခံရ</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>၁၁ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ဇမ်ဘီယာမှာ တရုတ် အွန်လိုင်းငွေလိမ်ဂိုဏ်းကြီးကို ဖမ်းမိခဲ့</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>၁၀ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ပန်းချီနဲ့ မှတ်တမ်းတင်ခံရတဲ့ အဘွား</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>၁၀ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ရာသီဥတုပြောင်းလဲမှု -  မတ်လစံချိန်တင်အပူကြောင့် အနေအထားသစ်ကို ဝင်လာနေပြီ</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>၉ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ဓာတ်သတ္တုအပြိုင်ရှာဖွေ‌ရေးနဲ့ ပင်လယ်သမုဒ္ဒရာ ပထဝီ နိုင်ငံရေး</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>၈ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>မြဝတီ - လူမြင်ကွင်းမှာစစ်ကောင်စီတပ်ဖွဲ့တွေ မမြင်ရတော့တဲ့နယ်စပ်မြို့</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>၈ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ဧပြီ ၆ ရက် နိုင်ငံတဝန်း ထူးခြားသတင်းများအနှစ်ချုပ်</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>၈ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>တရုတ်အမျိုးသမီးတွေ ဘာကြောင့်သူစိမ်းတွေနဲ့ အဖော်စပ်ငွေစုကြသလဲ</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>၆ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>လွယ်ဂျယ်နယ်စပ်မြို့ ကေအိုင်အေ ထိန်းချုပ်</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>၅ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ချင်းပြည်နယ်မှာ အိန္ဒိယနဲ့ ကုန်သွယ်ရေး ပြန်လည်ပတ်</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>၄ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ဦးနှောက်ထဲ Neuralink ချစ်ပ်ပြားထည့် ပထမဆုံးလူနာ အွန်လိုင်း စစ်တုရင်ကစားနိုင်ပြီ</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>၁ ဧပြီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ဂျပန်မှာ ပြည်ပလုပ်သား တိုးခေါ်မယ်</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>၂၉ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>မတ် ၂၃ ရက် နိုင်ငံတဝန်း ထူးခြားသတင်းများအနှစ်ချုပ်</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>၂၃ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ပူတင် နောက်တကြိမ်သက်တမ်းနဲ့ ယူကရိန်း စစ်ပွဲအလားအလာ</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>၂၂ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ပနားမား တူးမြောင်း အခက်အခဲတွေနဲ့ ရင်ဆိုင်နေရ</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>၂၀ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ရွှေဈေး ဘာကြောင့် စံချိန်တင် မြင့်တက်နေသလဲ</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>၁၈ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ရုရှား ရွေးကောက်ပွဲမှာ ဗလာဒီမီယာ ပူတင် ထပ်အနိုင်ရ</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>၁၈ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>အာဏာသိမ်း ၃ နှစ်အတွင်း တစ်ကျပ်သား ၄၁ သိန်းကျော်နဲ့ စံချိန်တင်ရွှေစျေး</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>၁၈ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ဘိန်းစိုက်ဧက ၁၀၀၀ ကျော် TNLA ဖျက်ဆီး</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>၁၃ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>စစ်တပ်ရဲ့ စစ်ရေးတတ်နိုင်စွမ်းကို လက်တွေ့ လျှော့ချနိုင်ရေး ဝိုင်းဝန်းလုပ်ဆောင်ဖို့ ပါမောက္ခရှောင်တာနယ် တိုက်တွန်း</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>၁၃ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ဗာဂနာ ရုရှားကြေးစားအဖွဲ့ အာဖရိကမှာဘယ်လိုပြန်လည်ဖွဲ့စည်းခဲ့လဲ</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>၁၂ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ဂါဇာအတွက် ကယ်ဆယ်ရေးပစ္စည်းတွေ လာပြီ</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>၁၁ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>‘အထိန်းအကွပ်မဲ့’ ခရီးသွားတွေကြောင့် ဂေရှားမယ်တွေရှိရာအရပ်ကို  ဝင်ရောက်ခွင့် ဂျပန် ပိတ်ပင်မယ်</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>၁၀ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>အမေရိကန် ရွေးကောက်ပွဲအပေါ် တရုတ်သဘောထား</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>၆ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>အမေရိကန်မှာ စူပါကျူးစ်ဒေး ရွေးကောက်ပွဲ ကျင်းပ</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>၅ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>တောင်ကိုရီးယားအမျိုးသမီးတွေ ကလေးမယူကြဖို့ ဆုံးဖြတ်လာကြတဲ့နောက်ကွယ် အကြောင်းရင်းတွေက ဘာတွေလဲ</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>၄ မတ် ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>လျှပ်စစ်မီးပြတ်တောက်မှုကြောင့် လူမှု ဒုက္ခတွေနဲ့ ရင်ဆိုင်နေရ</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>၂၉ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ရခိုင်ဒေသခံနဲ့ ရိုဟင်ဂျာတွေကို စစ်ကောင်စီ ပြည်သူ့စစ်သင်တန်းပေးနေ</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>၂၈ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>မူဆယ်နယ်စပ်က တရုတ်ဘက်သွားသူ များလာ</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>၂၈ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ဖေဖော်ဝါရီ ၂၈ ရက် ထိပ်တန်းသတင်းများ - မိုးကောင်းတံတားဖောက်ခွဲခံရ</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>၂၈ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>စစ်မှုထမ်းဥပဒေကြောင့် ပြည်ပရောက်မြန်မာတွေ ပြန်ဖို့စိုးရိမ်</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>၂၇ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ဂါဇာမှာ ငတ်မွတ်မှုဘေးနဲ့ ကြုံနိုင်တယ်လို့ ကုလသတိပေး</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>၂၇ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>အမေရိကန်နဲ့ ဥရောပသမဂ္ဂတို့က ရုရှားအပေါ် ဒဏ်ခတ်ပိတ်ဆို့မှုအသစ်တွေ ချမှတ်- ဖေဖော်ဝါရီ ၂၃ နိုင်ငံတကာသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>၂၃ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ဖေဖော်ဝါရီ ၂၃ ရက် ထိပ်တန်းသတင်းများ - ထိုင်းနိုင်ငံ တာ့ခ်ခရိုင်မှာ ဧည့်စာရင်းတိုင်ဖို့ အမိန့်ထုတ်</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>၂၃ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>အနောက်ဘက်ကမ်း ပစ်ခတ်မှု လူသေဆုံး- ဖေဖော်ဝါရီ ၂၂ ရက် နိုင်ငံတကာသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>၂၂ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ပတ်ဝန်းကျင် ညစ်ညမ်းမှု အနည်းဆုံး ဖြစ်တဲ့ လေယာဉ်ဆီ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>၂၀ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ဥရောပ ထွန်စက်တိုက်ပွဲ အိန္ဒိယလယ်သမားတွေဆီ ပျံ့နှံ့လာပြီလား</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>၂၀ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ရွေးကောက်ပွဲတွေနဲ့ အေအိုင်အပေါ် စိုးရိမ်မှု</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>၁၉ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>အင်ဒိုနီးရှားရွေးကောက်ပွဲနဲ့ လူငယ်မဲဆန္ဒရှင်များ</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>၁၃ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ရာဖာက ဓားစာခံ ၂ ယောက် အစ္စရေး ကယ်ဆယ်နိုင်</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>၁၂ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>သန်းနဲ့ချီတဲ့လူတွေ အိမ်ကိုပြန်ကြတဲ့ တရုတ်နှစ်သစ်ကူး</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>၉ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>စစ်တပ်နဲ့ ဆက်စပ်သူတွေကို အနောက်နိုင်ငံတွေ ထပ်မံပိတ်ဆို့</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>၂ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ကမ္ဘောဒီးယားက အန္တရာယ်များတဲ့ အုတ်လုပ်ငန်း</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>၁ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ဖေဖော်ဝါရီ ၁ ရက် ထိပ်တန်းသတင်းများ - စစ်အာဏာသိမ်းမှု ၃ နှစ်ပြည့်မှာ အကူအညီလိုသူ ၁၈ သန်းကျော်ပြီလို့ ကုလပြော</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>၁ ဖေဖော်ဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ကာလုံ အစည်းအဝေးက အရေးပေါ်ကာလ ၆ လထပ်တိုး</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>၃၁ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာ့အမြင့်ဆုံး သစ်သား လေတာဘိုင်</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>၂၉ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>လာအို အာဆီယံ အစည်းအဝေး စစ်ကောင်စီ ကိုယ်စားလှယ်လွှတ်</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>၂၉ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>တောင်ကုတ်မြို့တဝိုက်မှာ အေအေနဲ့ စစ်တပ်တို့အကြား စစ်ရေးပြင်ဆင်မှုတွေရှိလာ</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>၂၄ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>စစ်ကောင်စီနဲ့ ကရင် BGF တွေ့ဆုံ ဆွေးနွေး</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>၂၄ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>နယူးဟမ်ရှိုင်းယားမှာ ထရမ့်နိုင်</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>၂၄ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ယီမင်ပြည်တွင်းစစ်နဲ့ ပြည်ပနိုင်ငံများ ပတ်သက်မှု</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>၂၃ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>အယိုးဒယ - အငြင်းပွား ဘာသာရေးအထွတ်အမြတ်မြို့ကို ‘ဟိန္ဒူ ဗာတီကန်’ အဖြစ်ပြောင်းလဲခြင်း</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>၂၁ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ကျောက်တော်မြို့နဲ့ အနီးဝန်းကျင်ကို ရက္ခိုင့်တပ်တော် ထိန်းချုပ်</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>၁၇ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ဇန်နဝါရီ ၁၇ ရက်ထိပ်တန်းသတင်းများ - နမ့်ဖတ်ကာမှာ ပျက်ကျတဲ့ လေယာဥ်မှူးနှစ်ဦးသေဆုံး</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>၁၇ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ဘေးလွယ်အိတ် တုပထုတ်တယ်ဆိုပြီး ရှီအင်းကို ယူနစ်ကလို တရားစွဲ</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>၁၇ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ပဲခူးတိုင်းထဲမှာ စစ်ကောင်စီ ပြည်သူ့စစ် စုဆောင်း</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>၁၆ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>တရုတ်က လူငယ်အလုပ်လက်မဲ့ ပြဿနာ</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>၁၆ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>လုပ်ငန်းခွင်မှာ အပြောင်းအလဲတွေ လုပ်နေတဲ့ ဂျပန်</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>၁၂ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>၂၀၂၄ ထိုင်ဝမ်ရွေးကောက်ပွဲ - အနိုင်ရသူက ကမ္ဘာကြီးအတွက် ဘယ်လောက်အရေးကြီးလဲ</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>၁၂ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ဇန်နဝါရီ ၁၁ ရက် ထိပ်တန်းသတင်းများ - ကျောက်တော် အပေါက်ဝရွာမှာ တိုက်ပွဲပြင်းထန်နေ ၊ ပေါက်တောက တောင်ဖူးရွာ မီးရှို့ခံရ</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>၁၁ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>မလေးရှားမှာ မြန်မာအလုပ်သမားတွေ ဖမ်းဆီးခံရ</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>၈ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ရုရှားကျူးကျော်စစ်အတွင်း သေဆုံးခဲ့ရတဲ့ ယူကရိန်း မိန်းကလေး ၂ ဦး</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>၅ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>၂၀၂၄ နဲ့ မြန်မာသမိုင်းတစ္ဆေ- ပထမ အင်္ဂလိပ်စစ်၊ ကရင်တော်လှန်ရေး၊ ဗုဒ္ဓသံဂါယနာနဲ့ ဆိုရှယ်လစ်နိုင်ငံဟောင်း</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>၁ ဇန်နဝါရီ ၂၀၂၄</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ကျောက်ဖြူရေနက်ဆိပ်ကမ်း - စစ်ကောင်စီရဲ့ နောက်ဆက်တွဲစာချုပ် တရုတ်လိုလားတဲ့ပုံစံ   ပြန်ရောက်သွားမလား</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>၃၀ ဒီဇင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ဆန်၊ပဲ၊ပြောင်း ပို့ကုန်ရငွေနဲ့ စက်သုံးဆီဝယ်နိုင်တယ်လို့ စစ်ကောင်စီပြော</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>၂၄ ဒီဇင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ဒေါ်နယ်ထရမ့်အမှု တရားလွှတ်တော်ချုပ် အချိန်တိုအတွင်း မဆုံးဖြတ်နိုင်</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>၂၃ ဒီဇင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ဒီဇင်ဘာ ၂၃ ရက် ထိပ်တန်းသတင်းများ  - မန်တုံမြို့ကို TNLA ထိန်းချုပ်</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>၂၃ ဒီဇင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ဒီဇင်ဘာ ၁၅ ရက် ထိပ်တန်းသတင်းများ - မူဆယ် ၁၀၅ မိုင်အနီးက ဗျူဟာကုန်းမှာ တိုက်ပွဲပြင်းထန်</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>၁၅ ဒီဇင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>တရုတ်ကြက်သွန်ဖြူ နဲ့ အမေရိကန်အမျိုးသားလုံခြုံရေးအန္တရာယ်ဘယ်လိုပတ်သက်သွားသလဲ</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>၉ ဒီဇင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ဘာကြောင့် စက်သုံးဆီပြတ်လပ်ရှားပါးနေတာလဲ</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>၈ ဒီဇင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ဒီဇင်ဘာ ၇ ရက် ထိပ်တန်းသတင်းများ - နမ့်ခမ်းမှာ စစ်တပ်နဲ့ TNLA တို့ တိုက်ပွဲပြင်းထန်နေ</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>၇ ဒီဇင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ပို့ကုန်ရငွေ ဒေါ်လာ ပြင်ပပေါက်စျေးနဲ့ ရောင်းချနိုင်ပြီလို့ ဗဟိုဘဏ်ပြော</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>၆ ဒီဇင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ရာသီဥတုပြောင်းလဲမှုကို တရုတ်လျှပ်စစ်ကား  တားနိုင်မလား</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>၂၉ နိုဝင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ဂျနင်းမှာ အစ္စရေး စီးနင်း- နိုဝင်ဘာ ၂၉ ညပိုင်း နိုင်ငံတကာသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>၂၉ နိုဝင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ယူကရိန်းမှာနေတဲ့ ရုရှားလူမျိုးများ</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>၂၄ နိုဝင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>လောင်းကစားမှုနဲ့ ဖမ်းထားတဲ့ တရုတ်နိုင်ငံသားတွေကို စစ်ကောင်စီ အရေးယူမယ်</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>၂၁ နိုဝင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>နိုဝင်ဘာ ၁၄ ရက် ထိပ်တန်းသတင်းများ - လောက်ကိုင်မြို့ကို ဝင်တိုက်တော့မယ်လို့ MNDAA ပြော</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>၁၄ နိုဝင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ထိုင်းကမ္ဘာလှည့်ခရီးသွားလုပ်ငန်း ပြန်ခေါင်းမော့လာပြီလား</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>၉ နိုဝင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ဒဏ်ခတ်ပိတ်ဆို့မှုတွေအောက်က မြန်မာနဲ့ ဆက်လုပ်ဖို့ပြင်တဲ့ ထိုင်းစွမ်းအင် PTTEP</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>၉ နိုဝင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>MOGE နဲ့ ဆက်စပ်ဘဏ္ဍာရေးဝန်ဆောင်မှု တချို့ အမေရိကန် ပိတ်ဆို့</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>၁ နိုဝင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ထိုင်းရောက်မြန်မာတွေကို ၂၀၂၅ ဖေဖော်ဝါရီလအထိ ယာယီနေထိုင်အလုပ်လုပ်ခွင့် ပေးလိုက်ပြီ</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>၂၆ အောက်တိုဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>အောက်တိုဘာ ၂၅ ရက် ထိပ်တန်းသတင်းများ - စစ်အာဏာရှင်စနစ် ချုပ်ငြိမ်းရေး တိုက်ပွဲဝင်နေတယ်လို့ KIO ပြော</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>၂၅ အောက်တိုဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>စားသုံးဆီကုမ္ပဏီတွေ ကျပ်ဘီလီယံ ၁၀၀ ကျော် ဒဏ်ကြေးပြန်သွင်းရဖို့ရှိ</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>၂၁ အောက်တိုဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>အောက်တိုဘာ ၁၇ ရက်ထိပ်တန်းသတင်းများ - မုန်လိုင်ခက်တိုက်ခိုက်ခံရပြီး တစ်ပတ်အကြာမှာ အနန့်ပါ လေကြောင်းတိုက်ခိုက်ခံရ</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>၁၇ အောက်တိုဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>မြန်မာစစ်ကောင်စီ၊ ရုရှားနဲ့ တာလီဘန်တို့ တက်ရောက်တဲ့ တရုတ် ပိုးလမ်းမဖိုရမ်</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>၁၇ အောက်တိုဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>အောက်တိုဘာ ၁၂ ရက် ထိပ်တန်းသတင်းများ - အပစ်ရပ်စာချုပ် အ‌ပေါ်  KNU ၊ ABSDF နဲ့ CNF  ဘယ်လိုသဘောထားလဲ</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>၁၂ အောက်တိုဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ဂါဇာမှာ နောက်ဆက်တွဲပြဿနာတွေ ကြီးထွားလာနိုင်တယ်လို့ ကုလသတိပေး - အောက်တိုဘာ ၁၀ ရက် ညနေခင်း နိုင်ငံတကာသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>၁၀ အောက်တိုဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ဒုတိယဗိုလ်ချုပ်ကြီး မိုးမြင့်ထွန်းကို ထောင်ဒဏ် တစ်သက်တစ်ကျွန်းချ</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>၁၀ အောက်တိုဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>တရုတ်ကဖမ်းထားတဲ့ ဘီလီယံနာ ကိုးကန့်သူဌေးကြီး</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>၉ အောက်တိုဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ရန်ကုန် မန္တလေးမြို့ကြီးတွေမှာ စက်သုံးဆီ အလွယ်တကူ ဝယ်မရဖြစ်</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>၈ အောက်တိုဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>အမေရိကန်အဆင့်မြင့်ကိုယ်စားလှယ် အဖွဲ့ရဲ့ နောက်ထပ်တချီ တရုတ် ခရီးစဥ်- အောက်တိုဘာ ၇ ရက် ထိပ်တန်း နိုင်ငံတကာ သတင်းများ</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>၇ အောက်တိုဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>တရုတ်ခါးပတ်လမ်းကို ယှဥ်မယ့် အိန္ဒိယ-ဥရောပ စင်္ကြံလမ်း</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>၃ အောက်တိုဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ဝန်ထမ်းတွေကို စစ်ကောင်စီ ထောက်ပံ့ကြေး သုံးသောင်းပေး</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>၃၀ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>တရုတ်စီးပွားရေး အကြပ်အတည်းက ကမ္ဘာကြီးပေါ် ဘယ်လို ရိုက်ခတ်နိုင်သလဲ</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>၃၀ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>စက်တင်ဘာ ၃၀ ရက်ထိပ်တန်းသတင်းများ - CRSH နဲ့ သပိတ်ကော်မတီဝင်တွေ ဘာကြောင့်တွေ့ဆုံတာလဲ</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>၃၀ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ကုလားတန်စီမံကိန်းနဲ့ ရေကြောင်း ကုန်သွယ်မှု အတားအဆီးများ</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>၂၆ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>အခြေခံရည်ညွှန်းစပါးစျေးက အပြင်စျေးထက်နည်းနေ</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>၂၄ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ပြည်ပရောက် မြန်မာတွေရဲ့ လစာကို စစ်ကောင်စီ အခွန်ကောက်မယ်</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>၂၃ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ဟောင်ကောင်- ဒေါ်လာ သန်းရာချီလိမ်လည်သွားတယ်ဆိုတဲ့ ခရစ်တိုငွေကြေးလုပ်ငန်း</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>၂၃ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ပိုလန်က ဘာကြောင့် ယူကရိန်းကို လက်နက်ထောက်ပံ့မှု ရပ်ဆိုင်းလိုက်တာလဲ</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>၂၁ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>စက်တင်ဘာလ ၂၁ ရက် ထိပ်တန်းသတင်းများ - ကော့သောင်းမြို့ က တိုက်ပွဲတွေကြောင့် ဒေသခံရာနဲ့ချီ ထိုင်းဘက်ကိုစစ်ရှောင်</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>၂၁ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ဒုတိယဗိုလ်ချုပ်ကြီး မိုးမြင့်ထွန်း - ကြည်းတပ်ရဲ့ နံပါတ် (၄) ခေါင်းဆောင် စစ်ဆေးခံနေရ</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>၁၉ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>မျက်ခုံးမွှေးဆွဲတံစျေးကနေ လှစ်ပြတဲ့ တရုတ်လူငယ်တွေအကျပ်အတည်း</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>၁၇ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ကျပ်နဲ့ ရူဘယ်တိုက်ရိုက်ပေးချေစနစ် ဘယ်လောက်အလုပ်ဖြစ်မလဲ</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>၁၅ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>စက်တင်ဘာ ၁၅ ရက် ထိပ်တန်းသတင်းများ - စစ်တွေ မြို့တွင်းပစ်ခတ်မှု အမျိုးသားတစ်ဦးသေဆုံး</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>၁၅ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ရွှေ၊ ဒေါ်လာစျေးတွေကျပြီး ဆန်၊ ဆီစျေးတွေ ဘာလို့ မကျတာလဲ</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>၁၁ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>G20 အိန္ဒိယ - ပူးတွဲကြေညာချက်ထွက်လာတဲ့   ဒေလီဆွေးနွေးပွဲ</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>၁၀ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>မော်ရိုကိုငလျင် လူ ၁,၀၀၀ ကျော် သေ၊ မြောက်ကိုရီးယား စိန်ရတု စစ်ရေးပြပွဲနဲ့ စက်တင်ဘာ ၉ ညချမ်းသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>၉ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>စစ်ကောင်စီရဲ့ ကုန်သွယ်ရေးတာဝန်ခံ ဗိုလ်ချုပ် အပါအဝင် လူရာဂဏန်း စစ်ဆေးခံနေရ</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>၉ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>G20 အိန္ဒိယ - ကွဲပြားမှုတွေကြားရလဒ်ထွက်အောင်လုပ်နိုင်မလား</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>၉ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>တရုတ်အစိုးရ iPhone ပိတ်ပင်မှုကြောင့် Apple ရှယ်ယာဈေးကျ</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>၈ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>တရုတ်ဘက်ကို  မြန်မာတွေ ဘာသွားလုပ်ကြတာလဲ</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>၅ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>မူဆယ်ကတဆင့် တရုတ်ပြည်ထဲ ဝင်ခွင့်ပြု</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>၅ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>မြန်မာစစ်တပ်ရဲ့ ငွေရလမ်းတွေကို ပိတ်ဆို့မှုတွေ တိုးလာ</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>၂ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>စားသုံးဆီ - မီးဖိုချောင်ပစ္စည်းအထိရောက်တဲ့ နိုင်ငံရေးပြဿနာ</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>၁ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>စက်တင်ဘာ ၁ ရက်ထိပ်တန်းသတင်းများ -ကလပ်စတာဗုံးတွေကို မြန်မာစစ်တပ်သုံးနေတယ်လို့ CMC ထုတ်ပြော</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>၁ စက်တင်ဘာ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>အမိန့်ထုတ် ဖမ်းဆီးမှုတွေ နဲ့  မြန်မာ့စီးပွားရေး ထိန်းနိုင်မလား</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>၃၁ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>မြန်မာတွေ အလုပ်လုပ်နေတဲ့ ထိုင်းကြက်ခြံ အသရေဖျက်မှုမှာ ပိုင်ရှင် ရှုံးနိမ့်</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>၃၀ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>သြဂုတ် ၂၅ ရက် ဘီဘီစီထိပ်တန်းသတင်းများ - စစ်ကောင်စီ ထောက်ပို့ယာဥ်တန်းတိုက်ခိုက်ခံရပြီး လက်နက်တွေသိမ်းဆည်းခံရ</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>၂၅ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>လေယာဉ်ဆီတင်သွင်းမှု ကန် ထပ်မံပိတ်ဆို့</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>၂၄ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>စစ်ကောင်စီရဲ့ ဒေါ်လာ စစ်တလင်း</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>၂၄ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ရွှေနဲ့ ငွေလဲနှုန်း ကွာခြားမှု ထိန်းချုပ်ဖို့ ဘယ်လို လုပ်မလဲ</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>၂၃ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>သြဂုတ် ၂၃ ရက်ထိပ်တန်းသတင်းများ- မြန်မာနဲ့ ဘာစီလိုနာ U 12 ဘောလုံးအသင်းတွေ ယှဥ်ပြိုင်ဖို့ရှိ</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>၂၃ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>နိုင်ငံခြားငွေ တရားမဝင်ကိုင်ရင် ထောင်ဒဏ် အပြစ်ပေးမယ်</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>၂၁ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>နွံကန် ပြိုမှာ ကြောက်နေရတဲ့ မြို့</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>၂၀ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>သြဂုတ် ၁၇ ရက်ထိပ်တန်းသတင်းများ - UNOCHA အကြီးအကဲ ရခိုင်ပြည်နယ် သွားရောက်</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>၁၇ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Ford နဲ့ GM ကိုကျော်သွားတဲ့ ဗီယက်နမ်လျှပ်စစ်ကား ကုမ္ပဏီ VinFast</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>၁၆ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ကျပ် အခက် ဘတ် အတက်</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>၁၆ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>လယ်တွေရေမြုပ်နေပြီး  ဆန်စျေးက မနှစ်ကထက် နှစ်ဆတက်လာ</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>၁၄ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>တရုတ်မှာ ကုန်စျေးနှုန်းတွေကျနေတာကို ဘာ့ကြောင့် စိုးရိမ်နေကြလဲ</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>၁၀ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>မြဝတီကုန်သွယ်ရေးလမ်းတွေ မိုးများပြီး ပျက်စီး ပြတ်တောက်</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>၉ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>စင်ကာပူ UOB ဘဏ်‌က မြန်မာဘဏ်တွေနဲ့ လုပ်ငန်းရပ်ဆိုင်း</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>၉ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>မြန်မာ-ထိုင်း ကုန်သွယ်‌‌ရေးလမ်းမကြီး ပြတ်တောက်သွားတဲ့ မြေပြိုမှု</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>၈ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>မြဝတီ - ကော့ကရိတ်လမ်း မိုးများပြီး မြေပြို လမ်းပျက်</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>၇ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>လက်ပံတောင်းတောင်ကြေးနီစီမံကိန်း - ခြံစည်းရိုး ခတ်ခံရတဲ့  ဝက်မှေးရွာဟောင်းဒေသခံတွေ</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>၆ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ဩဂုတ် ၄ ရက်ထိပ်တန်းသတင်းများ - သာယာဝတီထောင်မှာ နိုင်ကျဉ်း ဆယ်ချီ တိုက်ပိတ်ခံထားရ</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>၄ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ဆန်ဈေးထိန်းဖို့ ဆန်စပါးအသင်းချုပ် လုပ်မယ်</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>၂ သြဂုတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ကျပ် ၂၀၀၀၀ တန် ထုတ်တဲ့နေ့ ဈေးကွက် အခြေအနေ</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>၃၁ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ရေနံနဲ့ သဘာဝဓာတ်ငွေ့ရှာဖွေတူးဖော်ခွင့် လိုင်စင် ၁၀၀ ချပေးမယ့် ဗြိတိန်အစိုးရ သတင်း နဲ့ ဇူလိုင် ၃၁ ရက် ညပိုင်းနိုင်ငံတကာ သတင်းတွေ</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>၃၁ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>မိုခါလွန်ပေမဲ့ အံခဲနေရဆဲဗေဒါ</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>၂၇ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>တိုက်ခန်းအရောင်းသွက်တဲ့ နှစ်သောင်းတန်ဂယက်</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>၂၆ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>၂၀၀၀၀ တန် ဂယက် ၃ ရက်အကြာ</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>၂၅ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>အွန်လိုင်းဈေးရောင်းသူတွေ မှတ်ပုံတင်ရမယ်</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>၂၄ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>နာဂဒေသ ကျောက်တူးမှု ဒေသခံတွေ ကန့်ကွက်</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>၂၄ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ကျပ်နှစ်သောင်းတန် - စျေးကွက်ဖွင့်ရက် ကသောင်းကနင်း ဒေါ်လာနဲ့ရွှေစျေးကွက်</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>၂၄ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>အထည်ချုပ် -  ကျပ် ၈၀၀ တိုးတောင်းမိလို့ အဖမ်းခံရတဲ့ကမ္ဘာကျော်တံဆိပ်ချုပ်သူတွေ</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>၂၄ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>နိုင်ငံရေး အရှုပ်တော်ပုံတွေကြောင့် လှုပ်ခတ်သွားတဲ့ စင်္ကာပူ</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>၂၀ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ဘီဘီစီရဲ့ ဇူလိုင် ၂၀ ရက်နောက်ဆုံးရသတင်းများ - ထိုင်း - မြန်မာ နယ်စပ်မှာ မြန်မာတွေတင်လာတဲ့ကားနဲ့ ကုန်တင်ကားတိုက်မိလို့ ၅ ဦးသေဆုံး</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>၂၀ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>"တရုတ်ပြည်က မေမေ့ရဲ့ အချိန်ပြည့် သားသမီးများ"</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>၁၈ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ကျောက်ဖြူက ဓာတ်အားပေးစက်ရုံတွေ ရပ်နား</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>၁၈ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>"သတ်ပြီး အလောင်းပြန်ပို့လိုက်တာကမှ ပိုကောင်းသေးတယ်"- မြန်မာနိုင်ငံထဲပြန်ဖို့ ငြင်းနေကြတဲ့ ရိုဟင်ဂျာဒုက္ခသည်တွေ</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>၁၂ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>အာကာသခရီးသွား လုပ်ငန်းဆိုတာ ဘာလဲ</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>၁၀ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ရင်းနှီးမြှုပ်နှံ သူတွေကြား  ရေပန်းစားလာတဲ့ စျေးကွက် ၃ ခု</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>၉ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>နီကယ် တူးဖော်မှု - အနာဂတ်တွေကို ဖျက်ဆီးပစ်နေသလား</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>၈ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>အမေရိကန်က ပိတ်ဆို့လိုက်တဲ့ ဘဏ်နှစ်ခု ဘယ်လို ဆက်လည်ပတ်နေလဲ</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>၈ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>တရုတ်က ရောင်းမထွက်တဲ့ အထပ်မြင့်တိုက်တွေကနေ ဘာသင်ခန်းစာ ယူသင့်လဲ</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>၇ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ပုဂံမှာ သစ်ပင်စိုက်သင့်၊ မစိုက်သင့် - ကမ္ဘာ့အမွေအနှစ်စာရင်းဝင် ပုဂံအတွက် အန္တရာယ်များ</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>၇ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ဘား နဲ့ ဖျော်ဖြေရေးတွေကို စစ်ကောင်စီ ဘာကြောင့် ဖိအားပေးသလဲ</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>၆ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ဒေါ်အောင်ဆန်းစုကြည်နဲ့  သမ္မတ ဦးဝင်းမြင့် တို့ ရဲ့အယူခံအမှုတွေကို ကြားနာပြီးရင် ဘာဆက်ဖြစ်မလဲ</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>၅ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>စီးပွားရေး တိုးတက်ဖို့ စစ်ကောင်စီလုပ်မယ်</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>၄ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>မြောက်ပိုင်း မဟာမိတ် ၃ ဖွဲ့ သတိပေးချက်ထုတ်</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>၃ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>စစ်ကောင်စီရဲ့  နယ်စပ် ပို့ကုန် သွင်းကုန် မူဝါဒ အပြောင်းအလဲ</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>၂ ဇူလိုင် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>မြန်မာဟိုတယ်တွေ အွန်လိုင်းမှာ အလုံးလိုက်ရောင်းချ</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>၂၆ ဇွန် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ကုန်စျေးနှုန်း ထပ်ကြီးလာစေမယ့် ဗဟိုဘဏ် ဒေါ်လာစျေး ကိုင်တွယ်မှု</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>၂၃ ဇွန် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ကန်က ဘဏ်တွေပိတ်ဆို့မယ့် သတင်းကြောင့် ဒေါ်လာဈေးတက်</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>၂၁ ဇွန် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>နိုင်ငံခြားမှာ အလုပ်သွားလုပ်မယ်ဆိုရင် အချိန်ဘယ်လောက်စောင့်ရမလဲ</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>၂၁ ဇွန် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ဇွန် ၂၁ ရက်၊ ထိပ်တန်းသတင်းများ- ထိုင်းရောက် နိုင်ငံခြားအလုပ်သမားတွေအတွက် အထောက် အထားသက်တမ်းတိုးဖို့ ၂ လခွဲ ထပ်မံခွင့်ပြု</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>၂၁ ဇွန် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>အလုပ်သမားအရေး ဆောင်ရွက်သူတွေ ဖမ်းဆီးခံနေရ</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>၂၀ ဇွန် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>လယ်တွေကပျက် မျိုးစပါးကခက်နေတဲ့ ရခိုင်တောင်သူတွေ</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>၂၀ ဇွန် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ဇွန် ၁၉ ရက်၊ ထိပ်တန်းသတင်းများ- ရန်ကုန် ကမာရွတ်က  ပန်းပန်သူ၊ ပန်းကိုင်ထားသူအမျိုးသမီး အချို့ဖမ်းဆီးခံရတယ်လို့ မြို့ခံတွေပြော</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>၁၉ ဇွန် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ရွှေလုပ်ငန်းရှင်အချို့ကို စစ်ကောင်စီ ခေါ်ယူစစ်ဆေး</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>၁၅ ဇွန် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>၁၂ တန်းသင်ရိုးသစ် စာမေးပွဲကို ကျောင်းသား အများအပြား အပြင်ဖြေဝင်ဖြေရဖို့ရှိ</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>၁၃ ဇွန် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ရခိုင်ပြည်နယ်အတွင်းက ကုန်စည် သယ်ယူရေး အခက်အခဲ</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>၂၉ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>တရုတ်က ဆင်းရဲတဲ့ နိုင်ငံတွေကို အကြွေးထဲ ပိုနစ်အောင် လုပ်နေသလား</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>၂၉ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>တရုတ်ပို့ သရက်စျေးကွက်  အရှုံးပေါ်တဲ့အကြောင်း ကုန်သည်တွေ ဘာပြောသလဲ</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>၂၇ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>မန္တလေးမှာ ဓာတ်အားရဖို့ ကိုယ်ထကိုယ်ထ စိုက်ထုတ်နေရ</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>၂၄ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>တရုတ်နိုင်ငံရဲ့  စီးပွားရေးအကျပ်ကိုင်မှုကို စက်မှုထိပ်သီး ၇ နိုင်ငံဘယ်လို တုံ့ပြန်မလဲ</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>၂၃ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ဟီရိုရှီးမားမှာ ချထားတဲ့ ယူကရိန်းအလံရောင် ဖဲကြိုးနဲ့ချည်တဲ့ ပန်းစည်း - မေ ၂၁ရက်၊ နိုင်ငံတကာ ထိပ်တန်းသတင်း</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>၂၁ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ရုရှားကို ဒဏ်ခတ်မှုတွေ ထပ်လုပ်ဖို့ G 7 နိုင်ငံခေါင်းဆောင်တွေ ထုတ်ဖော်ကြေညာ- မေလ ၁၉ ရက် ညပိုင်း နိုင်ငံတကာသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>၁၉ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>G7 - ဒီနှစ် ထိပ်သီးဆွေးနွေးပွဲမှာ ဘာကြောင့် ၈ နေရာ တိုးထားလဲ</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>၁၉ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>မြန်မာကတင်ပို့တဲ့ ကျပ်သိန်းသောင်းချီဖိုး ပဲတွေ တရုတ်ဘက်မှာ ချိတ်ပိတ်ခံထားရ</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>၁၉ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ဟီရိုရှီးမားမှာ လုပ်မယ့် G 7 ထိပ်သီးဆွေးနွေးပွဲ-မေ ၁၈ ရက် ထိပ်တန်း နိုင်ငံတကာ သတင်းများ</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>၁၈ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ရန်ကုန် စက်မှုဇုန်တွေ မီးပုံမှန်ရဖို့ ဓာတ်အားခ နှစ်ဆတိုးပေးကြရမလား</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>၅ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>မေ ၅ ရက် ထိပ်တန်းသတင်းများ-မြန်မာ့အရေး ဖြေရှင်းရေး နောက်ကွယ်က ဆောင်ရွက်နေတယ်လို့ အင်ဒိုနီးရှားပြော</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>၅ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>နေပြည်တော်ကို ရောက်လာတဲ့ တရုတ်နိုင်ငံခြားရေးဝန်ကြီးသစ်</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>၂ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ရုန်းကန်နေရတဲ့ ပြည်တွင်းပြည်ပက မြန်မာ လုပ်သားများ</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>၁ မေ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>မီးပြတ်တာ ဆိုးပေမဲ့ ဆိုလာပြား ဝယ်တပ်နိုင်မှာလား</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>၂၈ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ဆိုလာ တွင်တွင်ကျယ်ကျယ် အသုံးပြုလာ</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>၂၈ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ပြည်တွင်းမှာ ဆန်စျေးမြင့်တက်လာ</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>၂၆ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>လျှပ်စစ်မီးမလာတာကို ဘယ်လိုရင်ဆိုင်ဖြေရှင်းနေကြသလဲ</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>၂၆ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ဆန်စျေး ဘာကြောင့် ရုတ်တရက် မြင့်တက်လာပြန်သလဲ</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>၂၆ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ကျောက်ဖြူအထူးစီးပွားရေးဇုန်နဲ့ ၅ မိုင်ခန့်အကွာမှာ ခုံး (ဂုံး)ကောင်ရေ အများအပြားသေဆုံးနေတာတွေ့</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>၂၃ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>၂၃ ဧပြီ နိုင်ငံတကာ ထိပ်တန်းသတင်း- ဆူဒန်ထဲက နိုင်ငံတကာ လူကယ်ပွဲ</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>၂၃ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ကျပ်ငွေနဲ့ ရူပီး တိုက်ရိုက်လှဲလှယ် ကုန်သွယ်မယ်</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>၁၈ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ပိုင်နက်တွေတိုးချဲ့ဖို့ တောင်းဆိုတာလုပ်နေတယ်လို့ G7 ထုတ်ပြန်ချက် တရုတ်ဒေါသတကြီး တုံ့ပြန်- ဧပြီ ၁၈ ရက် ညနေခင်း နိုင်ငံတကာသတင်း</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>၁၈ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>သင်္ဘောသားမလိုတဲ့ ကုန်တင်သင်္ဘောကြီးတွေ ဘယ်လောက်တွင်ကျယ်လာနိုင်သလဲ</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>၁၆ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>စစ်အာဏာသိမ်းတဲ့ခေတ်၊ စစ်ပွဲတွေနဲ့ စျေးနှုန်းတွေ</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>၁၄ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>မန္တလေးတိုင်း စဥ့်ကိုင်မှာ ဓာတ်ငွေ့ ယိုစိမ့်မှုကြောင့် လူ ၃၀ ခန့် ဆေးရုံပို့ရ</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>၁၂ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>စစ်အသုံးစရိတ် အမြင့်ဆုံးရောက်ရှိ</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>၁၁ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>နိုင်ငံခြားရင်းနှီးမြှုပ်နှံမှုတွေ ထွက်ခွာနေကြချိန်မှာ ကုမ္ပဏီမှတ်ပုံတင်စည်းမျဥ်းတွေက ဆွဲဆောင်မှုရှိရဲ့လား</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>၉ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>မြန်မာအပေါ် တရုတ်ဆက်ဆံရေးပုံစံ ပြောင်းလာ</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>၄ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>အစိုးရ စာချုပ်နဲ့ ထိုင်းမှာ အလုပ်လာလုပ်တဲ့ မြန်မာတစ်ထောင်ကျော် လပိုင်းအတွင်း အလုပ်ဖြုတ်ခံရ</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>၄ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>လမ်းကြောင်းခက်လို့ ထိုင်းကလာတဲ့ သစ်သီးဈေးတွေ နှစ်ဆတက်</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>၂ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>လျှပ်စစ်မီးပြတ်တောက်မှု ပိုဆိုးရွားလို့ ကြုံရတဲ့အခက်အခဲတွေ</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>၁ ဧပြီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>သင်္ကြန်ပိတ်ရက်ရှည် ဟိုတယ်ခန်းမှာယူမှု ပြည်တွင်းခရီးသွားတွေနဲ့ ပြည့်</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>၃၁ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ပဋိပက္ခတွေကြောင့် မြန်မာ့စီးပွားရေး ဆိုးဆိုးရွားရွား ကျဆင်းတယ်လို့  ကမ္ဘာ့ဘဏ်ပြော- မတ်လ ၃၁ ရက် ထိပ်တန်းသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>၃၁ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>မတ်လ ၂၉ရက် ထိပ်တန်းသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>၂၉ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>တရုတ်-မြန်မာနယ်စပ်သွင်းကုန် စိစစ်မှုတင်းကျပ်ပြီး ပစ္စည်းသိမ်းခံရတာတွေရှိ</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>၂၈ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ပလတ်စတစ်အမှိုက်တွေကို ဘယ်လို အသွင်ပြောင်းနိုင်ပြီလဲ</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>၂၇ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>မတ်လ ၂၂ ရက် ထိပ်တန်းရောက်သတင်းများ - မဲဆောက်မှာ မြန်မာတွေ ခိုလှုံနေတဲ့ တိုက်တန်းကို ထိုင်းစစ်တပ် ဝင်ရောက်စစ်ဆေး</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>၂၂ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>အကျပ်ဆိုက်နေတဲ့ ဆွစ်ဇာလန် ခရစ်ဒစ်ဆွိဘဏ်ကို ပြိုင်ဘက်ဘဏ်က လွှဲယူဖို့ ပြင်</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>၁၉ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>ဒေါ်လာစျေးသတ်မှတ်ချက်ကြောင့် ဆန်ကုန်သည်တွေ အထိနာ</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>၁၆ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ကြက်သွန်ကြောင့် မျက်ရည် ဖြိုင်ဖြိုင်ကျနေရတဲ့ အိန္ဒိယ တောင်သူတွေ</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>၁၅ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>နိုင်ငံခြားသားတွေကို တရုတ်က ဗီဇာ ပြန်ထုတ်ပေးမယ်-မတ်လ ၁၄ရက် ညနေခင်း နိုင်ငံတကာသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>၁၄ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>အကြမ်းဖက်တိုက်ဖျက်ရေး နည်းဥပဒေ စစ်ကောင်စီ ပြဌာန်း</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>၁၃ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>တရုတ်ဘီလျံနာသူဌေးတွေ ဘာလို့ ပျောက်သွားကြတာလဲ</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>၁၂ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>ဘန်ကောက်မြို့ခံတွေ အိမ်ကနေ အလုပ်လုပ်ဖို့ ညွှန်ကြားခံရနိုင် - မတ် ၁၂ ညနေခင်းသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>၁၂ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>မကွေးရေနံမြေတဝိုက်ကို စစ်ကောင်စီတပ်တွေ နေရာအနှံ့ စစ်ကြောင်းထိုး၊ ဒေသခံထောင်ချီ ထွက်ပြေးရ</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>၁၀ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>ရေနံလုပ်ငန်းတွေကို စစ်ကောင်စီ စစ်ကြောင်းထိုး</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>၁၀ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>ကလေးမြို့က ၁၂ ဘီးကုန်ကား အများအပြားကို စစ်ကောင်စီချောဆွဲ</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>၈ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>အိန္ဒိယ မြို့ပြ အမျိုးသမီးထက်ဝက်ကျော် အိမ်တွင်းအောင်းနေကြ</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>၄ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>အီရန်ကျောင်းသူတွေ အစာအဆိပ်သင့်မှု ကော်မရှင်ဖွဲ့ စုံစမ်းမယ် - မတ်လ ၂ရက် ညနေခင်းသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>၂ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>အထည်ချုပ်စက်ရုံ၂ရုံ ထပ်ပိတ်</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>၁ မတ် ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>ကြွေးမြီဖြေလျော့ရေး G20 ဆွေးနွေး- ဖေဖော်ဝါရီလ ၂၅  ညနေပိုင်း နိုင်ငံတကာ သတင်းများ</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>၂၅ ဖေဖော်ဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>ဆန်စျေး -  နယ်စပ်ကကုန်သွယ်ရေး အပြောင်းအလဲ ပြည်တွင်းဆန်စျေးကို သက်ရောက်မှာလား</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>၂၄ ဖေဖော်ဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>ဆန်စျေးတွေ တက်နေတာ ဘယ်သူနဲ့ဆိုင်သလဲ</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>၂၃ ဖေဖော်ဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ဖေဖော်ဝါရီ ၂၃ ရက် ထိပ်တန်းသတင်းများ- တရုတ်အထူးသံသစ် မိတ်ဆက်လာရောက်ခြင်းဖြစ်၊ အန်ယူဂျီရုံး ကိစ္စမပြောဘူးလို့ ကေအိုင်အိုပြော</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>၂၃ ဖေဖော်ဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>တရုတ်က အမေရိကန်ဆီက နည်းပညာတွေ ဘယ်လိုခိုးယူနေသလဲ</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>၂၁ ဖေဖော်ဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>နိုင်ငံကူးလက်မှတ်ရုံးတွေ ရက်ပိုင်းအတွင်း ဖွင့်ဖို့ရှိ</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>၂၀ ဖေဖော်ဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>ဖေဖော်ဝါရီ ၁၇ ရက်ထိပ်တန်းသတင်းများ-အမေရိကန်နဲ့ အင်ဒိုနီးရှား နိုင်ငံခြားရေးဝန်ကြီးတို့တွေ့ဆုံပြီး မြန်မာ့အရေးဆွေးနွေး</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>၁၇ ဖေဖော်ဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>မြန်မာပြည်မှာ ဆန်ဈေးတက်လာနေ</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>၁၅ ဖေဖော်ဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>မြန်မာ့ ဆန်စျေး ဆူနာမီ</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>၁၅ ဖေဖော်ဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>စစ်ကိုင်းတိုင်းက အရေးပါတဲ့ ကုန်သွယ်ရေးလမ်းမကြီး အချို့ ကို ပီဒီအက်ဖ်တွေ ထိန်းချုပ်ထား</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>၁၂ ဖေဖော်ဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>ရန်ကုန်မှာ နျူကလီးယားနည်းပညာ သတင်းအချက်အလက်စင်တာ ဖွင့်</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>၇ ဖေဖော်ဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ပထမဆုံး အသုတ်ရောက်လာတဲ့ လျှပ်စစ်ကားတွေ- မြန်မာမှာ လျှပ်စစ်ကား အလုပ်ဖြစ်နိုင်လား</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>၂၅ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>ရိုးရာအကပြိုင်ပွဲတွေ မတွေ့ရတဲ့ ရန်ကုန်မြို့လယ်က တရုတ် နှစ်သစ်ကူးပွဲ</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>၂၂ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>ဆိုလာပြားတွေကို ပင်လယ်ထဲထားနိုင်တဲ့ နည်းပညာ ဘယ်လောက်တိုးတက်လာနေသလဲ</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>၂၁ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>ဂိတ်ကြီးတွေ ပြန်ပွင့်လာတဲ့ နယ်စပ်ကုန်သွယ်ရေး အခြေအနေ</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>၂၀ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>အိန္ဒိယ ခရီးသွားလုပ်ငန်းတိုးတက်မှုနဲ့ သဘာဝ ထိခိုက်မှု</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>၁၉ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>ထိုင်း ရေနံတင်သင်္ဘော ပေါက်ကွဲမှု မြန်မာ ၇ ဦးသေဆုံး</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>၁၈ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>စီးပွားကပ်ဆိုက်ပြီး စစ်အင်အား သုံးပုံတစ်ပုံ လျှော့ချရတဲ့ သီရိလင်္ကာရဲ့ နောက်ဆုံးအခြေအနေ</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>၁၆ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>မြန်မာ-ရုရှား အထီးကျန်နိုင်ငံ အချင်းချင်းပေါင်းဖက်မှု</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>၁၅ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>"အပိုသုံးဆို သနပ်ခါးတောင် ဝယ်မလိမ်းတော့ဘူး" - ကုန်စျေးနှုန်းနဲ့ စီဒီအမ် ဆရာမ</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>၁၂ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>၂၀၂၃ မှာ လက်တွေ့  ခေတ်စားလာနိုင်တဲ့ နည်းပညာတွေက ဘာတွေ ဖြစ်မလဲ</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>၉ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>တရုတ်က နယ်စပ်ဂိတ်ပြန်ဖွင့်ပေမဲ့ မြန်မာဘက်က ပိတ်ထားဆဲ</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>၈ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ကျောင်းပြန်မတက်နိုင်တဲ့ သီရိလင်္ကာကလေးငယ်တွေ</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>၄ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>နိုင်ငံကူးလက်မှတ်ရုံးပိတ်လို့ လူတွေ အခက်တွေ့နေ</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>၃ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>မြန်မာ နိုင်ငံကူးလက်မှတ်ထုတ်ပေးရေးရုံး ယာယီပိတ်</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>၂ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>တရုတ်ကိုပစ်မှတ်ထားတဲ့ အမေရိကန်နည်းပညာစစ်ပွဲ</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>၁ ဇန်နဝါရီ ၂၀၂၃</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>ကော့ကရိတ်တိုက်ပွဲကြောင့် ထိုင်းနဲ့ နယ်စပ်ကုန်သွယ်ရေး ရပ်ဆိုင်းလုနီးဖြစ်နေတယ်လို့ဆို</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>၃၁ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>ပဋိပက္ခတွေကြား ဒီဇင်ဘာ ခရီးသွားကာလ ခရီးသွား သုံးသိန်းဝန်းကျင်အထိ ရှိတယ်လို့ဆို</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>၂၄ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>မုံရွာက ဘဏ်အချို့ ‌‌‌ထုတ်ငွေ ပမာဏ ကန့်သတ်လာ</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>၂၂ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ဒီဇင်ဘာ ၁၉ ရက် ထိပ်တန်းသတင်းများ - ဒီပဲယင်းမှာ ဒီဇင်ဘာလ ပထမ ၂ ပတ်အတွင်း နေအိမ် ၁၇၀၀ ကျော် မီးရှို့ခံရ</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>၁၉ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>အာဂျင်တီးနား ကမ္ဘာ့ဖလား သုံးကြိမ်မြောက် ဗိုလ်စွဲ</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>၁၈ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>နျူကလီးယား ဖျူးရှင်း စွမ်းအင်ရဲ့ ခြေလှမ်းသစ်</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>၁၅ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>အွန်လိုင်းပေါ်က ငွေလိမ်မှု တိုးလာ</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>၁၄ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>မြန်မာငွေ ပြန်မာလာပြီလား</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>၁၄ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>မချိုမြိန်သော ကမ္ဘာ့ဖလား</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>၁၄ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>ဖိနပ်စက်ရုံ ဆန္ဒပြ အလုပ်သမားအရေး ညှိနှိုင်းဆဲ</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>၁၃ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Adidas ဖိနပ်ချုပ်တဲ့စက်ရုံက လုပ်ခတိုးတောင်းသူတွေ အလုပ်ပြန်ခန့်ဖို့ လက်မခံ</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>၁၃ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>မြန်မာမုန့်တွေ လူသိအောင်လုပ်ရင်း အောင်မြင်လာတဲ့ လူငယ်အမျိုးသမီး</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>၁၀ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>အလုပ်ရဖို့ ခက်ခဲနေဆဲ ထိုင်းရောက် မြန်မာအလုပ်သမားများ</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>၁၀ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ဒီဇင်ဘာ ၈ ရက်ထိပ်တန်းသတင်းများ- အာဆီယံအထူးသံ မြန်မာကိုမလာရောက်တော့</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>၈ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>စျေးချိုတဲ့ ရုရှား ရေနံကို အာရှနိုင်ငံတွေ ဝယ်ယူနေ</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>၇ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ရခိုင်မှာ အပစ်ရပ်ပြီး ကုလားတန်စီမံကိန်း ပြန်စဖို့ပြင်</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>၇ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>ကလေးကစားကွင်းတွေထဲကို အမျိုးသမီးတွေမလာဖို့တားမြစ်</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>၅ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>ရခိုင်က ကုန်လမ်း ရေလမ်းအချို့ အကန့်အသတ်နဲ့ ထပ်ဖွင့်</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>၄ ဒီဇင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>မီးပြတ်မှုကြောင့် ဘာအခက်အခဲတွေ ကြုံနေရသလဲ</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>၃၀ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>လူမှုကွန်ရက်ပေါ် ပျံ့နှံ့နေတဲ့ ကျောက်ကပ်ထုတ်ရောင်းမှုများ</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>၂၈ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>နိုဝင်ဘာ ၂၈ရက် ထိပ်တန်းသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>၂၈ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>တရုတ်မှာ သမ္မတ ရှီကျင့်ဖျင်နုတ်ထွက်ဖို့ တောင်းဆိုဆန္ဒပြ</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>၂၇ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>နိုင်ငံကူးလက်မှတ်အခက်အခဲ - ကျူအာကုဒ်စျေးသိန်းချီရှိပေမဲ့ အလှည့်ရောက်ဖို့ ခက်နေဆဲ</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>၂၅ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ထိုင်းရောက် မြန်မာလုပ်သားတွေ အခက်ကြုံနေ</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>၂၂ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>မာန်အောင်နဲ့ စစ်ကိုင်းက လိမ်လည်မှု - ပြည်တွင်းပြည်ပ အလုပ်အကိုင်ဗန်းပြ လိမ်လည်မှုတွေ</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>၁၆ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>စစ်ကောင်စီ တိုက်လေယာဥ်တွေထဲ ဆီတွေ ဘယ်လို ရောက်လာလဲ</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>၁၅ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>ပတ်ဝန်းကျင်နဲ့ လိုက်လျောညီထွေဖြစ်စေမယ့်  နေထိုင်မှုပုံစံသစ် အိန္ဒိယ တကယ်ကူးပြောင်းနိုင်မလား</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>၁၃ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>ဘာလီမှာ အမေရိကန်သမ္မတ နဲ့ တရုတ်ခေါင်းဆောင် တွေ့ဖို့ရှိ</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>၁၃ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>ကပ်ဘေးစစ်ဘေးကြားက ချင်းအမျိုးသားပိုင် ကုမ္ပဏီ အာဆီယံဆု ချီးမြှင့်ခံရ</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>၁၂ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>အာဆီယံစည်းဝေးချိန် ပူတင် “အထူးတာဝန်ပေး”လိုက်တဲ့ ရုရှားစီးပွားရေးသမားတွေ နေပြည်‌တော်ရောက်လာ</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>၁၁ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>မြန်မာ့အိမ်ခြံမြေ ဘာလို့ လပိုင်းအတွင်း အရောင်းအဝယ် အေးသွားတာလဲ</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>၅ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>ပြည်တွင်းစီးပွားရေးတိုးတက်နေတယ်လို့ စစ်ခေါင်းဆောင်ပြော-နိုဝင်ဘာ ၅ ရက်ထိပ်တန်းသတင်းများစုစည်းမှု</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>၅ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>ကိုယ့်ဘဏ်စာရင်းထဲက ငွေတွေကို ခြိမ်းခြောက်လိမ်လည်ရယူနေမှုတွေအတွက် ဗဟိုဘဏ်က ဘာလုပ်ပေးနိုင်သလဲ</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>၃ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>နောက်ဆုံးပေါ် Digital Banking လိမ်နည်းတွေ ဘယ်လို သတိထားရမလဲ</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>၃ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>မန္တလေးတိုင်းက CDM ဆရာဝန်နဲ့ သူနာပြုတွေ ဖမ်းဆီးခံရ</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>၁ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>နယ်စပ်ကုန်သွယ်ရေး ငွေပေးချေမှု ဘဏ်စနစ်နဲ့သာ ဆောင်ရွက်ရမယ်</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>၁ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>ပို့ကုန်ရငွေ နယ်စပ်ကုန်သွယ်မှု စနစ်ကို စစ်ကောင်စီ ပြန်အသက်သွင်း</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>၁ နိုဝင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>အသက်လုပြေးနေရတဲ့  ပဲသိမ်းချိန်</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>၃၁ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>ဗဟိုဘဏ်ပေးမယ့် ၃၀ ကျပ် ငွေလွှဲသူတွေ မက်မှာလား</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>၂၉ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာ့ စွမ်းအင်ပြဿနာ ဘာကြောင့်ဖြစ်</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>၂၈ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>အာရှလမ်းသစ်မှာ တိုက်ပွဲတွေနေ့စဥ် ရက်ဆက်ဖြစ်</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>၂၆ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>ပထမဆုံး အာရှနွယ်ဖွား ယူကေဝန်ကြီးချုပ်</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>၂၅ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>အစိုးရအဖွဲ့အသစ်လက်ထက်မှာ တရုတ်စီးပွားရေး ဘာတွေဆက်ဖြစ်မလဲ</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>၂၅ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>အာရှနွယ်ဖွား ပထမဆုံး ဗြိတိန်ဝန်ကြီးချုပ် ရီရှီ ဆူးနက်ခ်</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>၂၄ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>ဒီပါဝလီပွဲတော်- ဒစ်ဂျစ်တယ်ရွှေ ခေတ်စားလာပြီလား</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>၂၃ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>မြန်မာကို FATF ရဲ့အမည်မည်းစာရင်းထည့်သွင်းမှု တစ်ပြည်လုံးအထိနာနိုင်-ကျွမ်းကျင်သူတွေရဲ့အမြင် စုစည်းချက်</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>၂၂ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>နှစ် ၁၀၀ ပြည့် ဘီဘီစီရဲ့ အစ</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>၁၈ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>အောက်တိုဘာ ၁၈ ရက် ထိပ်တန်းသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>၁၈ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>ကေပေး ဝေ့ပေးတို့နဲ့ အလိမ်အညာ ဇာတ်လမ်းများ</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>၁၆ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>ယူကေဘဏ္ဍာရေး ဝန်ကြီး ကွာစီကွာတဲန်း အနားပေးခံရ</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>၁၄ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Toyota Myanmar ကားတွေ ရောင်းတော့မယ်</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>၁၂ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>သီတင်းကျွတ်ကာလ ပြည်တွင်း ခရီးသွားလာနှုန်း သုံးဆနီးပါးမြင့်လာ</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>၁၁ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>ဝန်ကြီးဌာနတွေ လစ်လပ်နေရာ အလုပ်ခေါ်ယူ</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>၁၁ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ခြိမ်းခြောက်မှုတွေအောက်က ထိုင်ဝမ်အမျိုးသားနေ့</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>၁၁ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာပေါ်က ပစ္စည်းပေါင်းစုံ ထုတ်လုပ်ပေးရာ စက်ရုံကြီးနေရာကို အိန္ဒိယက တရုတ်အစား ဝင်ယူနိုင်မလား</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>၁၀ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>ရန်ကုန်နဲ့မန္တလေးမှာ အကန့်အသတ်နဲ့ ရောင်းချပေးနေတဲ့ ရွှေတွေ</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>၈ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>တရုတ်စီးပွားရေးကိုအခက်ကြုံစေတဲ့အကြောင်းရင်း ၅ ခု</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>၆ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>လုပ်ငန်းရှင်တွေ အခွန်အပြည့်ဆောင်ဖို့ စစ်ခေါင်းဆောင်ပြော</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>၄ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>မလုပ်မရှုပ်မပြုတ် - quiet quitting ခေတ်စားလာသလား</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>၁ အောက်တိုဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>အီရတ်ရေနံတွင်းတွေကလာတဲ့ အဆိပ်သင့်လေထု</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>၂၉ စက်တင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>ဒေါ်လာ အပြင်စျေး ၂၈၀၀ ဝန်းကျင် ကို ပြန်ကျ</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>၂၉ စက်တင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>သ﻿န်းရာချီထီဆုကြီး ပေါက်ပြီးမှ ပြန်ပေးချင်နေတဲ့သူ</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>၂၆ စက်တင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>ဒစ်ဂျစ်တယ် ငွေပေးချေးမှု တချို့ ပိတ်သိမ်းခံရ</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>၂၂ စက်တင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Kpay ဂယက် ဘယ်အခြေဆိုက်မလဲ</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>၂၂ စက်တင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>အခန်းပိတ်ခံထားရတဲ့ ဒူဘိုင်းကနေ မြန်မာအိမ်အကူ ဘယ်လိုပြန်လွတ်လာခဲ့သလဲ။</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>၁၄ စက်တင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>မြန်မာနိုင်ငံ ဘာကြောင့် ကမ္ဘာ့ဘဏ္ဍာရေးစောင့်ကြည့်အဖွဲ့ FATF ရဲ့အမည်ပျက်စာရင်းမှာ ပါသွား နိုင်တာလဲ</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>၈ စက်တင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>အနောက်နိုင်ငံတွေရဲ့စီးပွားရေးပိတ်ဆို့မှုဟာ ဥရောပပြည်သူတွေကိုသာထိခိုက်တယ်လို့ ပူတင်ဆို</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>၇ စက်တင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ရုရှားနဲ့ ပိုနီးစပ်မှုတွေကို ပြလာတဲ့ စစ်ကောင်စီ ခေါင်းဆောင်ရဲ့ ခရီးစဥ်</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>၇ စက်တင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>လာမယ့် တစ်နှစ်အတွင်းတော်လှန်ရေးရဲ့အဆုံးအဖြတ်ကိုရယူမယ်လို့  နိုင်ငံတဝန်းအရေးပေါ်ကြေညာချက်ထုတ်တာ တနှစ်ပြည့်တဲ့နေ့မှာ  NUG ပြော</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>၇ စက်တင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ယွမ်စျေးတက်လို့ဆိုပြီး လောက်ကိုင်က မြန်မာလုပ်သားတွေ လစာဖြတ်တောက်၊ လျှော့ချခံရ</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>၃ စက်တင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>ရီရှီ ဆူးနတ်ခ် - ပထမဆုံး လူဖြူမဟုတ်သော ဗြိတိသျှ ဝန်ကြီးချုပ် ဖြစ်ဖို့ကြိုးပမ်းနေသူ</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>၃ စက်တင်ဘာ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>စစ်ကောင်စီ ဗဟိုဘဏ်ရဲ့ မူဝါဒသစ် အလုပ်ဖြစ်မလား</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>၃၁ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>ရုရှားက ရေနံနဲ့ဓာတ်ငွေ့ မရဘဲ ကမ္ဘာကြီး ဘယ်လိုဆက်ရှင်သန်မလဲ</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>၃၁ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>သိန်း ၃၀ အထက် ရွှေစျေး၊ တစ်ဒေါ်လာ ကျပ် ၃၆၅၀နဲ့ ဒိုင်ဗင်ထိုးဆင်းလာတဲ့ မြန်မာ့ငွေတန်ဖိုး</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>၃၀ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>ဆန်ဖူလုံတယ်ဆိုပြီး ဘာကြောင့် ဆန်ဈေးတက်နေသလဲ</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>၂၉ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>ပါကစ္စတန်ရေဘေးအတွက် အရေးပေါ်အကူအညီ တောင်း</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>၂၉ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>နိုင်ငံတကာအတွက် အရေးပါတဲ့ တရုတ်အိမ်ခြံမြေ အကျပ်အတည်း အခြေအနေနဲ့ အလားအလာ</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>၂၉ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>ရာသီဥတုပြောင်းလဲမှု - ဥရောပမှာ စွမ်းအင်စရိတ်တက်ချိန် ရုရှားက ဓာတ်ငွေ့တွေ မီးရှို့ပစ်နေ</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>၂၆ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>ဒေါ်လာနဲ့ ဒီဇယ် ကျပ် ၃၀၀၀ ကျော်နဲ့ စံချိန်သစ်ထပ်တင်</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>၂၅ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ဖားကန့်ကျောက်လုပ်ငန်းရှင်ကို ဖမ်းပြီး ပိုင်ဆိုင်မှု ကျပ် ၁၂ ဘီလျံ နီးပါးသိမ်း</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>၂၂ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ဆီတိုး ခေတ် ပြန်ရောက်ပြီလား</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>၂၂ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>စျေးကစားမှုတွေ အရေးယူမယ် ပြောပေမဲ့ ကုန်ပစ္စည်းစျေးတွေ မထိန်းနိုင်</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>၁၉ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>စက်သုံးဆီ လုံလောက်တယ်လို့ စစ်ကောင်စီပြော</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>၁၆ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>လောင်စာဆီ အကျပ်အတည်း ဘယ်ထိ ဦးတည်နေလဲ</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>၁၆ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>ရုရှားက စက်သုံးဆီ ဝယ်ဖို့ပြင်နေတဲ့ စစ်ကောင်စီ</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>၁၆ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>နယ်မြို့အချို့မှာ စက်သုံးဆီ ပြတ်</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>၁၄ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>အပ်ထားတဲ့ငွေကို ထုတ်မပေးလို့ ဘဏ်မှာ ဓားစာခံဖမ်းသူကို လူတွေချီးကျူးနေ</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>၁၂ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ဒေါ်လာ ရွှေ စက်သုံးဆီ စျေးတွေ ထိန်းမနိုင်ဖြစ်</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>၁၁ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာလုံးဆိုင်ရာစီးပွားရေးကျဆင်းမှုနဲ့ မြန်မာ့စီးပွားရေးကျဆင်းမှု</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>၁၁ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ပြည်တွင်းက စက်သုံးဆီစျေးနှုန်းတွေ ချီ ခုန်တက်</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>၉ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>စစ်ကိုင်းတိုင်းအတွင်းမှာ တိုက်ပွဲတွေ အပြင်းအထန်ဆက်ဖြစ်</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>၉ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>ငွေလဲနှုန်းသစ် စတင် အသက်ဝင်၊ ကုန်သည်တွေ ခက်ခဲနေဆဲ</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>၈ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>လုံခြုံရေးအန္တရာယ်ရှိနေပြီး အလုပ်အကိုင်ရှားလို့ ပြည်ပထွက်ချင်သူများပြား</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>၅ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>စျေးအတက်မှာ အရောင်းအဝယ်ငြိမ်နေတဲ့ ရွှေ၊ ဒေါ်လာ</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>၅ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>ရုရှားနိုင်ငံခြားရေးဝန်ကြီး နေ့ချင်းပြန်ခရီးစဥ်အပြီး ထွက်ပေါ်လာတဲ့ မြန်မာ-ရုရှား စစ်ဘက်ဆိုင်ရာ အစည်းအဝေး</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>၃ သြဂုတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ဒေါ်လာစျေးဆက်တက်နေပြီး ဝယ်မရအောင်ရှားနေ</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>၂၇ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>ရုံးမှာ အခိုင်းအစေလို အပိုအလုပ်တွေ အခိုင်းခံရတတ်တာကို အမျိုးသမီးတွေ ဆန့်ကျင် တုံ့ပြန်လာကြ</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>၂၃ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>ထိလွယ် ရှလွယ် အကဲဆတ်နေပြီး နောက်ကြောင်းပြန်လှည့်နေတဲ့ မြန်မာ့စီးပွားရေး</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>၂၁ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>ဒေါ်လာမကိုင်ရတဲ့နောက် စီးပွားရေးအခြေအနေ</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>၁၉ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>ရန်ကုန်မှာ ရေနံဓာတ်ငွေ့ရည် (LPG) ပြတ်တောက်</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>၁၈ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>ဒေါ်လာစျေး အတက်ကြမ်းပြီး ဝယ်မရဖြစ်</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>၁၈ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>ရခိုင်မှာ ရေကြောင်းက ကုန်သယ်တာကို ကန့်သတ်ထားလို့ ကုန်စည်တချို့ ပြတ်လပ်မှုဖြစ်</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>၁၇ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>ရန်ကုန်မှာ ထမင်းဟင်းချက်ဖို့ ဂက်စ်ဝယ်မရဖြစ်</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>၁၇ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>စီးမထွက်အောင် ပိတ်ရင်း ခန်းလာတဲ့ ဒေါ်လာ</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>၁၅ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>နယ်စပ်မှာ မြန်မာတစ်ဦး အသတ်ခံရပြီး အိန္ဒိယ နယ်စပ်အသွားအလာ ထပ်ပိတ်</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>၁၄ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>မြန်မာပြည်ထုတ် SKD ကားတွေစျေးထိုးတက်၊ဆူဇူကီး အာတီဂါတစ်စီး သိန်း ၆၀၀ ခန့်စျေးပေါက်</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>၇ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>ပဲ ပြောင်း နှမ်း နယ်စပ်ကပို့ရင် ဒေါ်လာ နဲ့ ရောင်းဖို့သတ်မှတ်</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>၅ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>သီရိလင်္ကာ စီးပွားရေး အခက်အခဲကြောင့် နိုင်ငံရေး မတည်ငြိမ်မှုနဲ့ ကြုံနေရ</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>၁ ဇူလိုင် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>သီရိလင်္ကာမှာ ပုဂ္ဂလိက မော်တော်ယာဉ်တွေကို ဓာတ်ဆီဝယ်ခွင့် ပိတ်လိုက်</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>၂၈ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>ဝက်လက်မှာ ရှေးဟောင်းပစ္စည်း တူးဖော်</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>၂၈ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>တရိပ်ရိပ်တက်နေတဲ့ ကုန်စျေးနှုန်း၊ ဒီအတိုင်းသွားရင် လယ်တွေပြုတ်တော့မယ်နဲ့ ရိတ်သိမ်းသူမရှိတဲ့ ပဲခင်းများ</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>၂၆ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>ဗြိတိန်နိုင်ငံရဲ့ စားဝတ်နေရေးအကျပ်အတည်း</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>၂၂ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>ရုရှားက စက်သုံးဆီ ဝယ်ဖို့ စစ်ကောင်စီကြိုးပမ်း</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>၂၀ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>ဆက်လက်ကျဆင်းနေဦးမဲ့ ကမ္ဘာ့စီးပွားရေး</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>၁၆ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>ခိုးဆိုးလုယက်နေသူတွေက ဘယ်သူတွေလဲ၊ ဘယ်လိုတန်ပြန်ကာကွယ်နိုင်ခွင့်ရှိနေလဲ</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>၁၃ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>ဂျပန် ငွေကြေး ဖောင်းပွမှု</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>၁၀ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>ထိုင်းမှာ ဆေးခြောက်ကို တရားဝင်စိုက်ပျိုး ကုန်သွယ်ခွင့်ပြုပြီ</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>၉ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>မြန်မာပြည်မှာ စားသုံးဆီနဲ့ ကြက်သွန်နီဈေးတွေ တက်လာ</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>၈ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>စက်သုံးဆီဈေးတက်လို့ ရခိုင် ငါးဖမ်းလုပ်ငန်းတွေ ကျဆင်း</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>၇ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>ဘင်္ဂလားဒေ့ရှ် ပေါက်ကွဲမှု လူ ၄၀ ထက်မနည်း သေဆုံး</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>၅ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>တရုတ်ရဲ့ ပစိဖိတ် ရည်မှန်းချက် ဆန့်ကျင်တာ ခံလိုက်ရပြီလား</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>၂ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>သီရိလင်္ကာစီးပွားရေးအကျပ်ရိုက်မှု အကြောင်းအရင်း</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>၁ ဇွန် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>ဥရောပသမဂ္ဂ ထိပ်သီးဆွေးနွေးပွဲ - ရုရှားရေနံ တင်သွင်းတာကို ပိတ်ပင်ဖို့ မပြောနဲ့</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>၂၈ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>စားအုန်းဆီ ကုမ္ပဏီတွေရဲ့ ဒေသခံတွေအပေါ် ဒေါ်လာသန်းချီ ခေါင်းပုံဖြတ်မှုများ</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>၂၄ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>မြန်မာမှာ ပြည်ပရင်းနှီးမြှုပ်နှံမှု လုံးဝမရှိတော့တဲ့ ကဏ္ဍတွေကို ဆန်းစစ်ထုတ်ပြန်</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>၂၁ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>ရွှေမှောင်ခိုစျေးကွက်ကို စစ်ကောင်စီကထိန်းချုပ်ဖို့ကြိုးစား‌</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>၁၈ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>ရွှေစျေးကွက်ကို စစ်ကောင်စီက ထိန်းချုပ် လာ</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>၁၇ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>သီရိလင်္ကာ-ဓာတ်ဆီ တစ်ရက်စာပဲ ရှိတော့တယ်လို့ ဝန်ကြီးချုပ်သစ်ပြော</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>၁၇ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>တရုတ်ရင်းနှီးမြှုပ်နှံမှုတွေရဲ့ ဥရောပ နောက်ဆက်တွဲဖြစ်ရပ်တွေ</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>၁၅ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>သီရိလင်္ကာ- အစိုးရအဖွဲ့ခေါင်းဆောင်တွေရဲ့ နေအိမ်တွေ မီးတင်ရှို့ခံခဲ့ရအပြီး လုံခြုံရေးတွေ တင်းကျပ်ထား</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>၁၀ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>သတင်းတုတွေ ဖြန့်ဖို့ နိုင်ငံရေးသမားတွေက ကျွန်တော့်ကို ငှားကြတယ်</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>၈ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>စစ်ကောင်စီက ငွေစက္ကူရိုက်ဖို့ ကုန်ကြမ်းတွေဆက်ရနေ</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>၈ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>ဓာတ်ဆီစျေးတက်တဲ့နိုင်ငံတွေထဲမှာ မြန်မာ ထိပ်ဆုံးလို့ စစ်တမ်းတွေ့</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>၇ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>ဥရုမြစ်ထဲမှာ ရာနဲ့ချီတဲ့ရွှေမျောတွေ ရွှေထုတ်နေ</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>၅ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>အိုပက်က ရေနံဈေးကျအောင် ဘာကြောင့်မလုပ်သလဲ</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>၅ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>မြန်မာ သရက်သီးတွေကို တရုတ်က ကိုဗစ်စစ်ပြီး ဝယ်မယ်</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>၅ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>သီရိလင်္ကာ-ပူးပေါင်းဆန္ဒပြမှုတွေရဲ့ နောက်ကွယ်က သဘောထားကွဲမှုတွေ</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>၄ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>ယူကရိန်းစစ်ပွဲ- ရုရှားက နည်းဗျူဟာ နျူလက်နက်တွေ ထုတ်သုံးမှာလား</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>၄ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>ယူကရိန်းစစ်ပွဲ- ကမ္ဘာ့စားသုံးဆီ တင်သွင်းမှုအများဆုံး အိန္ဒိယအတွက် နှိုးဆော်ချက်</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>၂ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>စစ်ကောင်စီ ဘယ်ကငွေဝင်လဲ၊ ဘာတွေသုံးမလဲ</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>၁ မေ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>ဂက်စ်တင်ပို့မှုတွေ ရပ်ဆိုင်းလိုက်တာဟာ ခြိမ်းခြောက်အနိုင်ကျင့်မှု ဖြစ်တယ်လို့ ရုရှားကို ဥရောပနိုင်ငံတွေစွပ်စွဲ</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>၂၇ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>ရုရှားလူဦးရေပြဿနာကို ယူကရိန်းစစ်ပွဲက ပိုဆိုးစေမလား</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>၂၆ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>တရုတ်က ရုရှားကို ဘယ်လို ပုံစံမျိုးနဲ့ ကူညီနိုင်သလဲ</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>၂၀ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>စက်သုံးဆီစျေးကို စစ်ကောင်စီထိန်းဖို့ လုပ်နေသလား</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>၂၀ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>ဆီဆိုင်မှာ ကားတွေ ဘာလို့တန်းစီနေကြတာလဲ</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>၁၉ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>တချို့ အိန္ဒိယလူမျိုးတွေရဲ့ သက်တမ်း ဘာကြောင့် တိုရတာလဲ</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>၁၈ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>ရုပ်ရှင်ရုံတွေပြန်ဖွင့်ဖို့ စစ်ကောင်စီ ဖိအားပေးနေသလား</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>၁၇ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>စစ်ကောင်စီက နိုင်ငံတကာလေယာဉ်ခရီးစဥ်တွေ ပြန်လည်ခွင့်ပြု</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>၁၇ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာလုံးဆိုင်ရာ လူနေမှုအကျပ်အတည်း</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>၁၅ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>နိုင်ငံခြားကြွေးမြီတွေဆိုင်းငံ့ထားမယ်လို့ သီရိလင်္ကာပြော</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>၁၄ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>ကချင်ပြည်နယ်က မြေရှားသထ္ထုတူးဖော်မှု အများအပြား ပြန်စလာ</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>၁၃ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>ပါကစ္စတန်ဝန်ကြီးချုပ် အီမရမ်ခန်း ရာထူးက ပြုတ်ကျသွားအောင်  ဘယ်အချက်တွေက စေ့ဆော်ခဲ့တာလဲ</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>၁၂ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>တရုတ်ရဲ့ ကိုဗစ်သုည စီမံချက်က ဘယ်လို အပြောင်းအလဲ ရှိလာနိုင်သလဲ</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>၁၁ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>ပါတော်မူချောင်း သို့မဟုတ် မြန်မာမြေပေါ်က ပျောက်ဆုံးသွားတော့မယ့် မြစ်တစ်စင်း</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>၁၀ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>ဗဟိုဘဏ် ဒုဥက္ကဋ္ဌ ပစ်ခတ်ခံရ</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>၇ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>တစ်နှစ်အကြာမှ CDM ကနေ အလုပ်ပြန်ဝင်သူတွေ အစမ်းခန့် ၃ လပြန်ခန့်ပြီး လစာ မရသူတွေရှိ</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>၇ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>သက်ပြည့်ပင်စင် ၆၂ နှစ် ဘယ်သူတွေပါလို့ ဘယ်သူတွေကျန်မလဲ</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>၆ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>စစ်ကောင်စီရဲ့ ရွှေ နဲ့ ငွေကြေးစျေးကွက် စောင့်ကြည့်ထိန်းသိမ်းကြပ်မတ်ရေးကော်မတီ အလုပ်ဖြစ်မှာလား</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>၅ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>သီရိလင်္ကာအစိုးရ အဖွဲ့တစ်ဖွဲ့လုံးနီးပါး  နုတ်ထွက်သွားတာတောင် ဘာလို့ဆန္ဒဆက်ပြနေကြတာလဲ</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>၄ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>နိုင်ငံခြားသုံးငွေတွေကို တစ်ရက် အတွင်း ကျပ်ငွေနဲ့ လဲလှယ်ရောင်းချရမယ် ဗဟိုဘဏ်ပြော</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>၄ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>ဗဟိုဘဏ်က နိုင်ငံခြားငွေတွေလဲရမယ်ဆိုတဲ့ ထုတ်ပြန်ချက်ကြောင့် စျေးကွက်မှာ အခက်ဖြစ်</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>၄ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>နိုင်ငံတကာက ပိတ်ဆို့နေချိန်မှာ အိန္ဒိယက ရုရှားဆီက ဘာ့ကြောင့် ရေနံတွေ ထပ်ဝယ်နေသလဲ</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>၄ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>အကျပ်အတည်း မျိုးစုံကြောင့် ပဲမျိုးစုံ လျှော့စိုက်ခဲ့ရ၊ ပဲအထွက် တန်သိန်းချီ လျော့သွား</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>၂ ဧပြီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>ရှမ်းပြည်နယ်မြောက်ပိုင်းက ကျောက်မီးသွေးပြန်လည်တူးဖော်မှု</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>၃၁ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>ကိယက်ဗ်နားမှာ စစ်ရေးလှုပ်ရှားမှုတွေ ဆက်ရှိ</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>၃၁ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>စီးပွားရေးမြို့တော် ရှန်ဟိုင်းမြို့ကို လော့ခ်ဒေါင်းချ</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>၃၀ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>ရုရှားသူဌေးကြီးတွေရဲ့ တိတ်တိတ်ပုန်းငွေတွေ ဘယ်မှာ သွားဖွက်ထားကြတာလဲ</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>၂၈ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>ရုရှားရေနံ နဲ့ ဓာတ်ငွေ့တွေကို ကမ္ဘာက ဘယ်လောက်အထိ အားထားနေရတာလဲ</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>၂၇ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>စိုက်စရိတ်နဲ့ ပဋိပက္ခတွေကြား နွေစပါးကို လက်လျှော့ခဲ့ရတဲ့ တောင်သူတွေ</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>၂၃ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>ငွေစက္ကူအတုလုပ် ရောင်းချမှု ကိုယ်တွေ့ကြုံရသူတွေရှိ</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>၁၆ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>လျှပ်စစ်မီးပြတ်တောက်မှုနဲ့ အလုပ်သမားထု</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>၁၆ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်ကြောင့်ပိတ်ထားတဲ မြန်မာ တရုတ်နယ်စပ်ဂိတ် အချို့ပြန်ဖွင့်</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>၁၃ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>ဆီစျေးတွေ အဆမတန်တက်လာလို့ ရခိုင်ကယာဉ်လိုင်းတွေ ရပ်ရမယ့် အခြေအနေဖြစ်နေ</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>၁၃ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>လောင်စာဆီ စျေးနှုန်း ဆက်လက်မြင့်တက်</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>၈ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>မီးပျက် ပြည်သူများ</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>၇ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>စက်သုံးဆီ နဲ့ စားသုံးဆီစျေးတွေ အပြိုင်တက်လာ</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>၃ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>၁၉၆၂ စစ်နိုင်ငံအစခရီးနဲ့ အမှားတော်ပုံများ</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>၂ မတ် ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>ယူကရိန်းကို ရုရှားကျူးကျော်မှု - ယူကရိန်းမှာ တိုက်ပွဲတွေ ပြင်းထန်ဆဲ</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>၂၈ ဖေဖော်ဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>ယူကရိန်းကို ရုရှား ကျူးကျော်မှု စတုတ္ထနေ့ သတင်းများ</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>၂၇ ဖေဖော်ဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>အနောက်ကမ္ဘာရဲ့ အရေးယူမှုတွေကို ရုရှားက တုံ့ပြန်မယ့်အစီအစဉ်</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>၂၄ ဖေဖော်ဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>လုယက်မှုတွေ တစစ ပိုအဖြစ်များလာတဲ့ ရန်ကုန်</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>၂၄ ဖေဖော်ဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>ရုရှားကို ဘယ်လို အရေးယူ ပိတ်ဆို့မှုတွေ လုပ်ထားလဲ</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>၂၃ ဖေဖော်ဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>ရတနာစီမံကိန်း လုပ်ခွင့်ရရေး ထိုင်းကုမ္ပဏီ ကြိုးပမ်း</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>၁၅ ဖေဖော်ဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>ရန်ကုန်က သက်တမ်း ၂၅ နှစ်ကျော် ဟိုတယ်တစ်လုံး အပြီးပိတ်သွားခြင်း</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>၂ ဖေဖော်ဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>တရုတ်နှစ်ကူးမှာ ဆိုင်တွေအတင်းဖွင့်ခိုင်းလို့ အခက်တွေ့</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>၃၀ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>နှစ်တထောင်ကြာ ပြိုကွဲတည်ဆောက်နေဆဲ မြန်မာပြည်ထောင်စု</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>၂၉ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>ရွှေ နဲ့ ငွေကြေးဈေးကွက်ကို စောင့်ကြည့်ဖို့ဆိုပြီး စစ်ကောင်စီ အဖွဲ့ ဖွဲ့</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>၂၆ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>မီးဖြတ်ခံရလို့ မန္တလေးမှာ တန်းစီပြီးမီတာဆောင်နေကြ</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>၂၄ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>တိုတဲလ် နဲ့ ရှက်ဗရွန် စွမ်းအင် ကုမ္မဏီတွေ မြန်မာနိုင်ငံက ထွက်ခွာမယ်</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>၂၁ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာ့အချမ်းသာဆုံး ၁၀ဦး ကိုဗစ်ကာလမှာ နှစ်ဆတိုးချမ်းသာ လာတယ်လို့ Oxfam အဖွဲ့က ပြော</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>၁၉ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>မြန်မာ့စီးပွားရေးသုံးသပ်ချက် အပိုင်း ၄ နိဂုံး</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>၁၂ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>ပဟေဠိဆန်တဲ့ စစ်တပ်ထိပ်ပိုင်း အပြောင်းအရွှေ့များ</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>၁၁ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>ဆင်းရဲတဲ့ နိုင်ငံတွေ အကြွေးတင်အောင် တရုတ်က ထောင်ချောက်ဆင်နေသလား</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>၁၀ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>ရုရှားတပ်ဖွဲ့တွေ ကာဇက်စတန်ထဲ ဝင်ရောက်တာကို အမေရိကန် မေးခွန်းထုတ်</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>၈ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>ကာဇက်စတန် လုံခြုံရေးတပ်ဖွဲ့တွေကို သမ္မတ ပစ်မိန့်ပေးထား</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>၇ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>မြန်မာမှာ ကြုံနေရတဲ့ စီးပွားကျုံ့ခြင်းဒဏ်</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>၆ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>မြန်မာ့စီးပွားရေးကြီးတခုလုံး သေးငယ်ကျုံ့ဝင်သွားခြင်း</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>၅ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>၂၀၂၁ မြန်မာ့စီးပွားရေးသုံးသပ်ချက် - အပိုင်း ၁</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>၃ ဇန်နဝါရီ ၂၀၂၂</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>ခရစ္စမတ်စ် ဘိုးဘိုးကြီး ဘာတွေ ပြင်ဆင်နေသလဲ</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>၂၄ ဒီဇင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>တရုတ်က နာမည်ကြီး အွန်လိုင်း စျေးရောင်းသူတစ်ဦး အခွန်ရှောင်မှုနဲ့ ဒေါ်လာသန်း ၂၁၀ ဒဏ်ရိုက်ခံရ</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>၂၂ ဒီဇင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>မြဝတီ နယ်စပ်ရေး ကုန်သွယ်ရေးအပေါ် တိုက်ပွဲတွေရဲ့ သက်ရောက်မှု</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>၂၁ ဒီဇင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>"တိုင်စရာ သမဂ္ဂတွေ မရှိတော့ဘူး။ စက်ရုံထဲမှာ ထောင်ကျနေသလိုပဲ" - ရန်ကုန်မြို့က စက်ရုံဝန်ထမ်းအမျိုးသမီး</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>၁၀ ဒီဇင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>အီးယူက တရုတ်ရဲ့ BRI စီမံကိန်းကြီးနဲ့ အပြိုင် ဘယ်လို စီမံကိန်းကြီးမျိုး လုပ်မှာလဲ</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>၆ ဒီဇင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>စစ်တွေ နယ်စပ်ကုန်သွယ်ရေး ဆိပ်ကမ်းက သင်္ဘောသားတချို့မှာ ကိုဗစ်ပိုးတွေ့</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>၂ ဒီဇင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>အထွက်များနေတဲ့ မြန်မာတွေနဲ့ အဖမ်းအဆီးကြမ်းနေတဲ့ ထိုင်းအ၀င်လမ်းတွေ</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>၂၄ နိုဝင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာ့ရာသီဥတု ပြောင်းလဲမှုညီလာခံကို နိုင်ငံအသီးသီးရဲ့ ပြည်တွင်းတုံ့ပြန်မှုတွေ</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>၁၂ နိုဝင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>လစာ ဒေါ်လာဝက် ဖြတ်ခံရလို့ ဂျပန်ရထားမောင်းက အလုပ်ရှင်ကုမ္ပဏီကို တရားပြန်စွဲ</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>၁၁ နိုဝင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>တရုတ်ထောက်လှမ်းရေးတစ်ဦး အမေရိကန် လေကြောင်းတွေဆီက လျှို့ဝှက်ချက် ခိုးယူမှုနဲ့ ပြစ်ဒဏ်ကျ</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>၆ နိုဝင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>အမေရိကန်မှာ အလုပ်အကိုင်တွေ တိုးလာပြီး လုပ်အားခတွေလည်း မြင့်လာ</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>၆ နိုဝင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>ကျပ်သိန်း ၂၀၀ ကျော်ရင် ဘဏ်စနစ်နဲ့ ပေးဖို့ အမိန့် လက်တွေ့ အလုပ်ဖြစ်နိုင်လား</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>၅ နိုဝင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>ရာသီဥတုပြောင်းလဲမှု - ကာဗွန်အမြင့်ဆုံးထုတ်လွှတ်တဲ့နိုင်ငံတွေက လျှော့ချရေး ဘယ်လောက်လုပ်နေလဲ</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>၃ နိုဝင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>တရုတ်- ဒီဇယ်ကို ခွဲတမ်းနဲ့ရောင်းနေရတဲ့ အကျပ်အတည်း</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>၂၉ အောက်တိုဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>လှိုင်သာယာက ကျူးကျော် အိမ်တွေ ဖျက်ရပြီ</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>၂၇ အောက်တိုဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>မက်တာဗာ့စ် ဆိုတာ ဘာလဲ</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>၂၄ အောက်တိုဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>ပြည်ပထွက် အလုပ်လုပ်သူတွေ ဘယ်လို အခက်အခဲ ကြုံနေရသလဲ</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>၂၂ အောက်တိုဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>နိုင်ငံတချို့က ရုပ်ကြွင်းလောင်စာဆက်သုံးချင်</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>၂၁ အောက်တိုဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာ့ရာသီဥတု ဖောက်ပြန်မှု အစည်းအဝေး COP26 က ဘာ့ကြောင့်အရေးပါသလဲ</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>၁၇ အောက်တိုဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>လျှပ်စစ်မီး ပုံမှန်ရဖို့ အခက်အခဲတွေ ကြုံလာရမလား</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>၁၃ အောက်တိုဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>ရန်ကုန်မှာ ယာဉ်စီးခတွေ ပိုမကောက်အောင် YBS ယာဉ်တွေမှာ ကတ်စနစ်ပြန်လုပ်မယ်လို့ တာဝန်ရှိသူပြော</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>၉ အောက်တိုဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>နိုင်ငံခြားသုံးငွေဆိုင်ရာဥပဒေ စစ်ကောင်စီပြင်ဆင်</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>၇ အောက်တိုဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>ပုဂံ ခရီးသွားလုပ်ငန်း ဘယ်လိုအခြေအနေရှိလဲ</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>၅ အောက်တိုဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>တရုတ်မှာ စီးပွားရေးလုပ်ငန်းတွေကို တင်းကျပ်လာလို့ ဘယ်လို သက်ရောက်မှုတွေ ရှိနေသလဲ</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>၅ အောက်တိုဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>တရုတ်မှာ ဘာကြောင့် မီးတွေပြတ်နေသလဲ</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>၃၀ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>ရွှေစျေး၊ ဒေါ်လာစျေး ထိုးတက်လာမှု စစ်ကောင်စီ ဘယ်လိုကိုင်တွယ်နေလဲ</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>၃၀ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>မနေ့ကရောင်းရငွေသည် ဒီနေ့အတွက် အရှုံးဖြစ်သည်</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>၂၉ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>အာဖဂန်ဘဏ်လုပ်ငန်း ပြိုကျလုနီးပြီလို့ ဘဏ်အကြီးအကဲပြော</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>၂၈ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာပေါ်က ဈေးအကြီးဆုံး တိရစ္ဆာန်များ</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>၂၇ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>တရုတ်အပြောင်းအလဲ - ရှီကျင့်ဖျင်က ဘာ့ကြောင့်ဆိုရှယ်လစ်လမ်းကြောင်းကို ပြန်လှည့်နေလဲ</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>၂၃ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>ရွှေစျေးကျပ် ၁၉သိန်းအထိ ပြန်တက်၊ဒေါ်လာ လဲနှုန်း ၂၀၂၀ ကျပ်ထိ ပြန်ရောက်လာ</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>၂၃ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်ကာကွယ်ဆေး သန်း ၂၄၀ ကျော် အလဟဿဖြစ်သွားနိုင်သလား</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>၂၃ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>နိုင်ငံခြားမှာ ကျောက်မီးသွေးသုံးစွမ်းအင်စက်ရုံ အသစ်တွေ မလုပ်တော့ဘူးလို့ တရုတ် ကတိပေး</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>၂၂ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>အင်တာနက်လွတ်လပ်ခွင့် အနိမ့်ဆုံးအဆင့်ကို ကျဆင်း</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>၂၂ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>စစ်အာဏာသိမ်းပြီးနောက် ရွှေစျေးနဲ့ ဒေါ်လာစျေးတွေ တက်လာနေ</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>၂၁ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>‌ရွှေစျေး ဒေါ်လာစျေးတွေ ပြန်တက်လာ၊ ဗဟိုဘဏ်က ဒေါ်လာ ၁၅ သန်းထုတ်ရောင်း</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>၂၀ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>စစ်ကိုင်း၊ မကွေးနဲ့ မန္တလေးတိုင်းထဲက မြို့နယ်တချို့မှာ အင်တာနက်ပြတ်တောက်နေ</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>၁၅ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>စစ်အာဏာသိမ်းမှုနဲ့ ကိုဗစ်နောက်ပိုင်း ပြောင်းလဲလာတဲ့ လူနေမှုဘဝတွေ</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>၈ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>ရွှေစျေး ဘာကြောင့် တရိပ်ရိပ်တက်</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>၄ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>အာဖဂန်နစ္စတန် စီးပွားရေး ပြိုလဲခါနီးနေ</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>၂ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>စီးပွားရေးကျုံ့မှုနဲ့ မြန်မာ့စျေးကွက်ကမောက်ကမဖြစ်စဥ်</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>၂ စက်တင်ဘာ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>NUG အစိုးရဲ့ ဘတ်ဂျက်အခြေအနေနဲ့ ပတ်သက်ပြီး ဘဏ္ဍာရေး ဝန်ကြီး ဦးတင်ထွန်းနိုင်နဲ့ တွေ့ဆုံမေးမြန်းခြင်း</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>၃၁ သြဂုတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>ရွှေနဲ့ ဒေါ်လာစျေး ထိန်းချုပ်ဖို့ စစ်ကောင်စီ ကြိုးစား</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>၃၁ သြဂုတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်ကြောင့် ပိတ်သွားခဲ့တဲ့ ဘီလီယံဒေါ်လာ နယ်စပ် တံခါးများ</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>၃၁ သြဂုတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>ဘဏ်သုံးသူတွေ အခက်အခဲ ထပ်ကြုံ</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>၂၇ သြဂုတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>မူဆယ်မှာ ကိုဗစ် ကုသရေး စင်တာဆောက်မယ်</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>၂၄ သြဂုတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>နွေဦးထီ ထိုးသူတချို့ အကောင့်တွေ အပိတ်ခံရ</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>၁၆ သြဂုတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>ဘဏ်တွေပိတ်ရတဲ့အကြောင်း ဗဟိုဘဏ် ဘာပြောလဲ</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>၁၃ သြဂုတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>စီးပွားရေး လုပ်ငန်းတွေအပေါ် တင်းကြပ်မှုတွေ ကာလရှည်လုပ်သွားမယ်လို့ တရုတ်ပြော</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>၁၂ သြဂုတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>လူမှုကွန်ရက်ပေါ်က ကိုဗစ်ကာကွယ်ဆေး ဘယ်လောက်အန္တရာယ်ရှိသလဲ</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>၉ သြဂုတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>"အောက်ဆီဂျင်စက်ရုံဆောက်ဖို့ထဲသာ တကယ်ထည့်မယ်ဆိုရင် (ငွေ)အကုန်ထုတ်ပေးလိုက်မယ်"</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>၂၉ ဇူလိုင် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာ့အကြီးဆုံး နီလာတုံးကြီး ရေတွင်းတူးရင်းတွေ့</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>၂၉ ဇူလိုင် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>ကိုဗစ် ကာကွယ်ဆေး ခရီးသွား</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>၂၉ ဇူလိုင် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>ရှင်ကျန်းပြည်နယ်နဲ့ပတ်သက်တဲ့ စီးပွားရေးလုပ်ငန်းတွေကို အမေရိကန် သတိပေး</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>၁၄ ဇူလိုင် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>ရခိုင်နယ်စပ်ကုန်သွယ်ရေးစခန်းတွေကို နှစ်ပတ်အကြာရပ်နားမယ်လို့ပြော</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>၁၁ ဇူလိုင် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>တယ်လီနောထွက်ခွာသွားမှု ဘယ်လိုရိုက်ခတ်မှုတွေ ရှိမလဲ</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>၉ ဇူလိုင် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>ရန်ကုန်တိုင်းထဲ မီတာခတွေ လိုက်လံ ကောက်ခံ</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>၆ ဇူလိုင် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>ကားလိုရော လေယာဥ်လိုပါ သုံးနိုင်တဲ့ ကားပျံ လေဆိပ် ၂ ခုအကြား ပျံသန်း</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>၃ ဇူလိုင် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>ထိုင်းက ဖူးခက်ကျွန်း ကမ္ဘာလှည့် ခရီးသွားတွေအတွက် ပြန်ဖွင့်</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>၁ ဇူလိုင် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာ့ အကြာဆုံး ကိုဗစ်လူနာ</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>၂၈ ဇွန် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>လာဇရုစ်အဖွဲ့လို့ ခေါ်တဲ့ မြောက်ကိုရီးယား ဟက်ကာတွေ ဒေါ်လာ တစ်ဘီလီယံ နီးပါးကို ဘယ်လို ခိုး ထုတ်ခဲ့တာလဲ</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>၂၃ ဇွန် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>မြန်မာအိမ်အကူကို နှိပ်စက်သေဆုံးစေခဲ့တဲ့ စင်္ကာပူအိမ်ရှင်ကို ထောင် နှစ် ၃၀ ချ</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>၂၂ ဇွန် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>G7 ထိပ်သီးနိုင်ငံတွေလှူမယ့် ကိုဗစ်ကာကွယ်ဆေး ဘယ်လို သက်ရောက်မှု ရှိမလဲ</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>၁၂ ဇွန် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>တရုတ်ပြည်မှာ ရူးလောက်အောင် ချမ်းသာတိုင်း ကောင်းသေးရဲ့လား</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>၁၀ ဇွန် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>၁၉၆၂ အာဏာသိမ်းနဲ့ အကြံပေးမင်းဆရာများ</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>၁ ဇွန် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>အမေရိကန်နဲ့ တရုတ် ကုန်သွယ်ရေးဆွေးနွေး</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>၂၇ မေ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>စစ်အာဏာသိမ်းပြီးနောက် ရပ်တန့်သွားသော ဆောက်လုပ်ရေး လုပ်ငန်းများ</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>၂၆ မေ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>စစ်အာဏာသိမ်းပြီးနောက်ပိုင်း ပြည်ပကလုပ်ငန်းတွေ မရေမရာဖြစ်လာ</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>၁၁ မေ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>ဘဏ်တွေမှာ ငွေထုတ်ရတာ ဘယ်တော့ အဆင်ပြေမှာလဲ</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>၁၀ မေ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>NUG ဝန်ကြီး ဒေါက်တာဇော်ဝေစိုးနဲ့ ဘီဘီစီ အင်တာဗျူး</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>၂၉ ဧပြီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>ဘဏ်တွေ တိုကင်တွေနဲ့ အေတီအမ် အနီးက လူတန်းရှည်ကြီးများ</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>၂၈ ဧပြီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>မြန်မာစစ်တပ်ကို စီးပွားရေးပိတ်ဆို့တာ အလုပ်ဖြစ်ပါ့မလား</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>၁၁ ဧပြီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>ပုံမှန်မလည်နိုင်တဲ့ ဘဏ်စနစ်ကြောင့် ပြည်သူတွေ အခက်တွေ့နေကြ</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>၈ ဧပြီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>ငွေအပိုယူပြီး ဘဏ်ကနေ ငွေထုတ်ပေးတဲ့ ဝန်ဆောင်မှုသစ် ပေါ်နေ</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>၇ ဧပြီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>ပေါ်စကို စတီးကုမ္ပဏီ ဦးပိုင်နဲ့ လက်တွဲဖြုတ်ဖို့ နည်းလမ်းရှာနေ</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>၅ ဧပြီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>ဖိအားတွေကြားက မြန်မာ့ ပုဂ္ဂလိကဘဏ်တွေရဲ့ အလားအလာ</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>၂၉ မတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>ဦးပိုင်နဲ့ MEC ကိုအမေရိကန်နဲ့ဗြိတိန်တို့က အရေးယူ</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>၂၅ မတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>မိတ်ဆွေနိုင်ငံ အနည်းငယ်နဲ့ ရှေ့ဆက်မယ်ဆိုတဲ့ စစ်ကောင်စီနဲ့ ဂလိုဘယ်လိုက်ဇေးရှင်း</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>၅ မတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>ငွေထုတ်မှုတွေ ကန့်သတ်လာတဲ့ ဗဟိုဘဏ်နဲ့ အကျိုးဆက်တွေ</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>၁ မတ် ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>စစ်အာဏာသိမ်းမှုကြောင့် မြန်မာ့စီးပွားရေး ထိခိုက်နိုင်သလား</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>၃ ဖေဖော်ဝါရီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာ့ဘဏ်ရဲ့ ဒေါ်လာ ၂၂၅ သန်းတန် စီမံကိန်း ရပ်ဆိုင်းပေးဖို့ အရပ်ဘက်အဖွဲ့တွေ တောင်းဆို</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>၂၈ ဇန်နဝါရီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>ဆင်းရဲ ချမ်းသာ ဘဝအနိမ့်အမြင့်ဒဏ်ကို နှစ်ကြိမ် ကြုံခဲ့ရတဲ့ ဒိုးနပ်ဘုရင်ကြီးရဲ့ဘဝ</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>၂၄ ဇန်နဝါရီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>ကန်အစိုးရသစ်ရဲ့ နိုင်ငံခြားရေး မူဝါဒ ဘယ်လို ဖြစ်နိုင်မလဲ</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>၂၀ ဇန်နဝါရီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>လူမြင်ကွင်းမှာ အတန်ကြာ ပျောက်နေတဲ့ ဂျက်မာ ပြန်ပေါ်လာ</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>၂၀ ဇန်နဝါရီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>စိတ်လှုပ်ရှားစရာ "Extreme E" ကားပြိုင်ပွဲ</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>၁၁ ဇန်နဝါရီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>မြောက်ကိုရီးယား စီးပွားရေး စီမံကိန်း မအောင်မြင်ဘူးလို့ ကင်ဂျုံအွန်းဆို</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>၆ ဇန်နဝါရီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>၂၀၂၁ နည်းပညာ လောကမှာ ဘာအသစ်အဆန်းတွေ မြင်လာရမလဲ</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>၅ ဇန်နဝါရီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>အီရန်သိမ်းပိုက်ထားတဲ့ ရေနံတင်သင်္ဘာမှာ မြန်မာသင်္ဘောသားပါရှိ</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>၅ ဇန်နဝါရီ ၂၀၂၁</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>၂၀၂၀ ရဲ့ ထူးခြားတဲ့ သတင်းဖြစ်ရပ်များ (အပိုင်း ၃)</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>၂၉ ဒီဇင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>လာမယ့် ၂၀၂၁ မှာ ဘယ်လို နည်းပညာသစ်တွေ ခေတ်စားလာနိုင်သလဲ</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>၂၈ ဒီဇင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>ဘရက်ဇစ်အလွန် လွတ်လပ်သော ကုန်သွယ်ရေး သဘောတူညီချက်ကို ယူကေဝန်ကြီးချုပ် ကြိုဆို</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>၂၄ ဒီဇင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>တရုတ်က အမည်းစက်စွန်းတဲ့ ချည်ထည်တွေ - ကမ္ဘာ့ဖက်ရှင်လုပ်ငန်းကြီးနောက်ကွယ်က အဓမ္မခိုင်းစေမှုတွေ</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>၁၆ ဒီဇင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>တရုတ် ဝါဂွမ်းလုပ်ငန်းမှာ ဝိဂါတွေကို အတင်းအကြပ် ခိုင်းစေမှုတွေ ရှိသလား</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>၁၅ ဒီဇင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်ကာကွယ်ဆေးတွေ ပို့ဆောင်ဖို့ စင်္ကာပူပြင်ဆင်</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>၁၄ ဒီဇင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>၆ဂျီ နည်းပညာကို နိုကီယာ ဖန်တီးနေ</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>၁၁ ဒီဇင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်အလွန် နာလံထ တရုတ်စီးပွားရေး</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>၈ ဒီဇင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>မူဆယ် နယ်စပ်က ဆန်ဖိုး‌‌ငွေတွေ ပြန်ရရေး အစိုးရကို အကူညီတောင်းမယ်</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>၇ ဒီဇင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>သြစတြေးလျကို တောင်းပန်ဖို့ တရုတ်က ငြင်းဆို</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>၁ ဒီဇင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>ဆိုရှယ်မီဒီယာပေါ် ပုံအတု တင်တဲ့ကိစ္စ တောင်းပန်ဖို့ တရုတ်ကို သြစတြေးလျ တောင်းဆို</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>၃၀ နိုဝင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>မူဆယ်ကတဆင့်တရုတ်ကိုတင်ပို့ထားတဲ့ ကျပ်သိန်းပေါင်း သောင်းချီရှိတဲ့ မြန်မာကုန်သည်တွေရဲ့ဆန်ဖိုးငွေတွေ မရသေး</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>၂၈ နိုဝင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>အီရန် ထိပ်တန်း နျူသိပ္ပံပညာရှင် လုပ်ကြံခံရ</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>၂၇ နိုဝင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>ထိုင်းပို့ကုန်တွေကို မြန်မာကုန်သွယ်ရေးဂိတ်အတွင်းက ဂိုဒေါင်တွေအထိ ပို့လို့ရပြီ</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>၂၃ နိုဝင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>အိန္ဒိယအထည်ချုပ်လုပ်ငန်းမှာ ခေါင်းပုံဖြတ်မှုတွေရှိ</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>၁၈ နိုဝင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာ့အကြီးဆုံး ကုန်သွယ်ရေးစာချုပ် RCEP မြန်မာအတွက် ဘာအကျိုးရှိမလဲ</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>၁၆ နိုဝင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>ကမ္ဘာ့အကြီးဆုံး ကုန်သွယ်ရေး သဘောတူညီမှုစာချုပ် မြန်မာအပါအဝင် နိုင်ငံပေါင်း ၁၅ နိုင်ငံ လက်မှတ်ရေးထိုး</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>၁၅ နိုဝင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>တန်ဖိုးကြီး လက်ပတ်နာရီတွေအရေးနဲ့ သြစတြေးလျစာတိုက်ဌာန အကြီးအကဲ နုတ်ထွက်ရ</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>၂ နိုဝင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>ကိုဗစ် ကြောင့်ပိတ်ထားတဲ့ မြန်မာ ထိုင်းနယ်စပ်ကုန်သွယ်ရေး ပြန်ဖွင့်</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>၂၆ အောက်တိုဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>လေထဲက လောင်စာ ဘယ်လို ထုတ်လို့ရနိုင်သလဲ</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>၂၄ အောက်တိုဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>ကိုဗစ် ကူးစက်မှုကြားက တရုတ်နိုင်ငံစီးပွားရေး ဆက်လက်မြင့်တက်</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>၁၉ အောက်တိုဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်ကြောင့် တခြားနိုင်ငံတွေ ရုန်းကန်နေရချိန်မှာ တရုတ် ကုန်သွယ်ရေး တိုးတက်</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>၁၇ အောက်တိုဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>စခရင်းရှော့ ရိုက်ယူတဲ့ ဆော့ဖ်ဝဲ သုံးပြီး ဝန်ထမ်းတွေကို စောင့်ကြည့်တယ်</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>၄ အောက်တိုဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>မဟာတံတိုင်းကြီးရဲ့ ပျက်စီးနေတဲ့ နေရာတွေပေါ် တက်ခွင့် ပိတ်လိုက်</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>၃၀ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>အမေရိကန်သမ္မတလောင်း စကားစစ်ထိုးပွဲ ဘယ်သူနိုင်သွားလဲ</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>၃၀ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>ကိုယ့်ရဲ့စာကျက်နည်း ပြန်ရောင်းပြီး စီးပွားရေးလမ်းစ ပွင့်ခဲ့သူ</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>၂၉ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်ကာလ ရန်ကုန်ကိုကိုင်တွယ်မှု လိုအပ်ချက်တွေ ရှိခဲ့လား-တစ်ပတ်အတွင်း သတင်းမြင်ကွင်း</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>၂၆ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>စစ်အေးတိုက်ပွဲ ကာလထဲ ကမ္ဘာကြီး ရောက်လာနေပြီလား</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>၂၆ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်ပိတ်ရက် အထည်ချုပ် အလုပ်သမားတွေ လစာရဖို့ မ‌သေချာ</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>၂၃ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>တိဘက်မှာ လူသိန်းချီကို တရုတ်အစိုးရ ပညာပေးစခန်းတွေဆီ အဓမ္မပို့နေတယ်ဆိုတဲ့ အစီရင်ခံစာထွက်</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>၂၃ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>ဘီလီယံနဲ့ချီတဲ့ တရားမ၀င် ငွေလွှဲမှုတွေကို ဘဏ်ကြီးတချို့က လုပ်ကိုင်နေတယ်ဆိုတဲ့ အထောက်အထားတွေ ထွက်ပေါ်</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>၂၁ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>ဒဏ်ခတ် ပိတ်ဆို့ ခံထားရတဲ့ သမ္မတပူတင်နဲ့ Barclays ဘဏ် ငွေသန်းချီ ခဝါချမှု ဆက်နွှယ်နေ</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>၂၁ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>ဟောင်ကောင်မှာ ၁၉၉၅ ခုနှစ်ကတည်းကစလို့ HSBC ရှယ်ယာတန်ဖိုး အနိမ့်ဆုံး ထိုးကျ</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>၂၁ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>ယိုရှိဟိဒဲ ဆုဂကို ဂျပန်ဝန်ကြီးချုပ်သစ်အဖြစ် ရွေးချယ်တင်မြှောက်</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>၁၆ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>ဗြိတိန် လော်ရီကားပေါ် လူတွေသေဆုံးမှု - ဗီယက်နမ်မှာ လူ ၄ ယောက်ကို ထောင်ဒဏ်တွေ စီရင်</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>၁၅ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>ဂျပန်ဝန်ကြီးချုပ်နေရာ ဆက်ခံမယ့်သူအဖြစ် မစ္စတာ ယိုရှိဟိဒဲ ဆုဂ ကို ရွေးချယ်</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>၁၄ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်-၁၉ ကပ်ရောဂါဒဏ်ကို ဆင်းရဲတဲ့နိုင်ငံတွေက ဘယ်လိုပိုခံရတာလဲ</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>၁၃ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>တောင်ကိုရီးယားက ဆိုးလ်မြို့တော်မှာ လော့ခ်ဒေါင်းချလုနီးပါး ကန့်သတ်</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>၄ စက်တင်ဘာ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>ပင်လယ်ရေညှိကို စားစရာအတွက်သာမက ဘယ်လိုလုပ်ငန်းတွေမှာ အသုံးတွင်လာသလဲ</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>၃၀ သြဂုတ် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်ကြောင့် ဘာလီကျွန်းကို နိုင်ငံခြားသားခရီးသွားခွင့် နှစ်ကုန်တဲ့အထိပိတ်</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>၂၅ သြဂုတ် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>ကိုဗစ် ကင်းတဲ့ နိုင်ငံ ၁၀ နိုင်ငံ</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>၂၄ သြဂုတ် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>သရီးဒီ ဖက်ရှင် ပြပွဲ ဖန်တီးသူ</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>၂၀ သြဂုတ် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>လက်ဖက်ရည်ဆိုင်နဲ့ စားသောက်ဆိုင်ငယ်တွေကို အစိုးရ ငွေထုတ်ချေးမယ်</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>၁၅ သြဂုတ် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>ပေါက်ကွဲမှုကြီးအပြီး လက်ဘနွန် အစိုးရ နုတ်ထွက်</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>၁၁ သြဂုတ် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>တရုတ်ပြည်မှာ အလုပ်အကိုင် ရှားပါးလာ</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>၁၁ သြဂုတ် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>တရုတ်နဲ့ အိန္ဒိယတို့ ထိပ်တိုက်တွေ့မှု ၂၁ ရာစုရဲ့ အရေးအပါဆုံး အားပြိုင်မှုလား</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>၆ သြဂုတ် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>ဖားကန့် ဝှေခါမှော် မြေပြိုမှု ၁ လပြည့် အခြေအနေ</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>၃ သြဂုတ် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>အတ္တလန်တိတ် ရေအောက်ဖြတ်ကျော် အင်တာနက်လိုင်းတွေ ဂူဂဲလ် တိုးချဲ့မယ်</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>၃၁ ဇူလိုင် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>အမေရိကန်ပြည်ထောင်စုနဲ့ တရုတ် အကြား ဘာကြောင့်တင်းမာ</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>၂၉ ဇူလိုင် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>ကိုရိုနာဗိုင်းရပ်စ် ထိန်းချုပ်ရေးအတွက် ပုဂံဘုရားအချို့ ဝင်ခွင့်ပိတ်</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>၂၉ ဇူလိုင် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>ဗီယက်နမ် တစ်နိုင်ငံလုံး ဗိုင်းရပ်စ် ကူးစက်မှာကို စိုးရိမ်လို့ အစိုးရ သတိပေး</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>၂၉ ဇူလိုင် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>တရုတ်စီးပွားရေးထိုးကျသွားရာက ပြန်ထောင်တက်</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>၁၇ ဇူလိုင် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>ဖားကန့် မြေပြိုမှု စုံစမ်းရေးအစီရင်ခံစာ သမ္မတထံတင်</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>၁၇ ဇူလိုင် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>'ယောက်ျားတယောက်အဖြစ် အသိအမှတ်ပြုခံရဖို့ ကျွန်တော့်ရဲ့ ကြိုးပမ်းမှု'</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>၁၅ ဇူလိုင် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>လော့ခ်ဒေါင်းကာလက နိုးထလာတဲ့ နယူးယောက်</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>၂၃ ဇွန် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>အမေရိကန်ဗီဇာ ဆိုင်းငံ့မှု နိုင်ငံခြားအလုပ်သမားတွေကို အဓိကထား</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>၂၃ ဇွန် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>သေရင် ရေထဲပစ်ချခံရတဲ့ အင်ဒိုနီးရှား ငါးဖမ်းသမားတွေ</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>၂၃ ဇွန် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်ကာလအကျိုးဆက်တွေကို တတိယလေးလပတ်မှာ အများဆုံး ရင်ဆိုင်ရဖို့ရှိ လို့ ဒေါ်အောင်ဆန်းစုကြည်ပြော</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>၁၆ ဇွန် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>ဗိုလ်ချုပ်ပုံပါ ကျပ် ငွေစက္ကူတွေ ထပ်ထုတ်မည်</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>၁၅ ဇွန် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>ကိုရိုနာဗိုင်းရပ်စ်နဲ့ မြို့ကြီးများရဲ့ အနာဂတ်</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>၈ ဇွန် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>အိန္ဒိယရဲ့ လက်ဖက်ခြောက်လုပ်ငန်း အလားအလာ</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>၄ ဇွန် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>မြစ်ထဲ ဒီဇယ် တန်သောင်းချီ စီးဝင်သွားလို့ ရုရှား အရေးပေါ်အခြေအနေကြေညာ</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>၄ ဇွန် ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>တပ်မတော် အသုံးစရိတ် လွှတ်တော်က ဖြတ်တာ ဘာကြောင့်လဲ</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>၂၇ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>တရုတ်စီးပွားရေး ဘာတွေ ဆိုးနေလဲ</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>၂၇ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>ခရီးသွားတွေ မလာတော့လို့ ထိုင်း ဆင်တွေ နေရပ်ကိုပြန်ကြပြီ</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>၂၆ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>မကာအိုကို ကမ္ဘာကျော်စေတဲ့ ကာဆီနိုဘုရင် အသက် ၉၈ နှစ်မှာ ကွယ်လွန်</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>၂၆ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>မေလ ၂၆ ရက်နေ့ မနက်ခင်းသိသင့်တဲ့သတင်းများ</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>၂၆ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>ကိုရိုနာကြောင့် တရုတ်ကုန်ထုတ်လုပ်ငန်းတွေ အိန္ဒိယကို ရွှေ့ပြောင်းလာနိုင်သလား</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>၂၃ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>နယူးယောက်က လူချမ်းသာတွေ အခမဲ့ စားစရာရဖို့ တန်းစီ</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>၂၂ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>မေ ၂၂ ရက် မနက်ခင်း ထိပ်တန်းသတင်းများ</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>၂၂ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>မြန်မာ စက်ရုံတွေမှာ ကိုရိုနာဗိုင်းရပ်စ် မကူးရေး ဆောင်ရွက်</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>၁၉ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>မီတာခ လျှော့ပေးပေမဲ့ ပိုကျတာ ဘာကြောင့်လို့ ဝန်ကြီးဌာန ပြောလဲ</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>၁၅ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>အိန္ဒိယအလုပ်သမားတွေကို ဒေါ်လာ သန်း ၄၆၀ ကျော်ဖိုး အခမဲ့ အစားအစာ အစိုးရ ထောက်ပံ့</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>၁၅ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>ယူကေကို လေကြောင်းက လာသူတွေ ၁၄ ရက် ကွာရန်တင်း ဝင်ရမယ်</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>၉ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်ကြောင့် ထိုင်းမှာ ပိတ်ထားတာတွေကို ပြန်ဖွင့်</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>၈ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>ရှမ်းပြည်က ပြောင်းဖူးတွေ မြစ်ထဲ ပစ်ချနေရတဲ့ နောက်ကွယ်</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>၈ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>အိန္ဒိယမှာ ကိုရိုနာဗိုင်းရပ်စ် ကူးစက်မှု ထိုးတက်</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>၅ မေ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>ကိုဗစ်ကြောင့်တန်နဲ့ချီ ပျက်စီးခဲ့ရတဲ့ တရုတ်နယ်စပ်က ဖရဲသီးများ</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>၂၈ ဧပြီ ၂၀၂၀</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>တစ်ပတ်အတွင်း ဘာတွေဖြစ်ခဲ့လဲ</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>၂၈ ဧပြီ ၂၀၂၀</t>
         </is>
       </c>
     </row>
